--- a/DataTableXl/DT_CardsUI.xlsx
+++ b/DataTableXl/DT_CardsUI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTableXl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5CB660-8CFC-4E21-B9CF-FA3377BEE956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE5A2B4-D5F5-4428-92DB-DC186A1D7AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{42B81260-985A-4B74-A2BA-B7DF455C8F63}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="155">
   <si>
     <t>---</t>
   </si>
@@ -126,16 +126,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>牌库抽牌5
-从牌库中抽5张牌</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活后获得队列增益：三体作息
-三体作息：使当前队列中的所有卡牌花费-1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>金多</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -274,11 +264,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>激活后获得1个持续1回合的增益：金花之力
-金花之力：buff存在时，每抽1张牌会给予1点费用，可重复触发</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>buff</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -326,11 +311,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>对敌人造成伤害
-重组：将目标的所有debuff迁移至他的后一个单位上</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>回复费用
 待命：每次有一张牌被执行，则该卡牌白值+1</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -339,244 +319,310 @@
     <t>Economic</t>
   </si>
   <si>
-    <t>Attack</t>
+    <t>自由主义</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>笨蛋，问题是经济！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyWord</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>待命</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环2/3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩散3 点燃1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>异色驱离 回费 后位增效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>同色激励</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时激励</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>后位驱离</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌库抽5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃牌区抽满</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久为10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>直面自由世界</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环0/10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环1/4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活后，将前一张牌的各种状态完全复制（包括费用、效果数、失效状态等）并添加到自身的队列前方</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在即是一切</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“这叫什么，灰勒一拳”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“哎？我打三体人，真的假的”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕裂，感染与重组，发生在细小的微响间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>老歪脖子树的圣遗物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我将，点燃大海</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>尘土下的猎人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活后获得1个持续1回合的1级增益：期货
+期货：回合开始额外回复8点费用，可叠加等级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡沫要加速了</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚可</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>干旱沙漠上的黄金</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌人造成伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageMini</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>地脉镖弹</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片化摸鱼</t>
   </si>
   <si>
     <t>巡回</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>金花之力</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄花附魔</t>
   </si>
   <si>
     <t>复飞</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>炎火瓶</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>强袭</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>克隆机</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼子酱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶石镖弹</t>
+  </si>
+  <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>迁移</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害
+紫晶感染：向目标增添持续2回合“紫晶化”
+紫晶化：亡语，死亡时对相邻目标造成12点伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方对敌人造成伤害的时会对目标附加1层“石毒”，持续1回合
+石毒：回合结束每层造成1点伤害，无视护甲，可叠加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方对敌人造成伤害的时会对目标附加1层“石毒”，持续1回合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>牌库抽5
+从牌库中抽5张牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫晶感染</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山火</t>
+  </si>
+  <si>
+    <t>储能长枪</t>
+  </si>
+  <si>
+    <t>爆鸣软弹</t>
+  </si>
+  <si>
+    <t>维生包</t>
   </si>
   <si>
     <t>忠！诚！</t>
+  </si>
+  <si>
+    <t>动员</t>
+  </si>
+  <si>
+    <t>恐惧3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断 回费 治疗 后位增幅</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予左右两张牌“待命”词条</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予左右两张牌“待命”词条
+待命：每次有一张牌被执行，则该卡牌白值+1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>虎拳</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>医学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>体检</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术</t>
+  </si>
+  <si>
+    <t>三体作息</t>
   </si>
   <si>
     <t>增援</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>三体作息</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>自由主义</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heal</t>
-  </si>
-  <si>
-    <t>笨蛋，问题是经济！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeyWord</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>重组</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>待命</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>循环2/3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩散3 点燃1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对主目标及其后续目标造成扩散伤害
-点燃1：对所有命中的敌人新增一层燃烧buff</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活后，将后一张牌的各种状态完全复制（包括费用、效果数、失效状态等）并添加到自身的队列后方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>中断 回费 后位增幅</t>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>激活使下一回合队列中的所有卡牌花费-1</t>
+  </si>
+  <si>
+    <t>驱散</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活使下一回合队列中的所有卡牌花费-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你说的对，但是我是降临派”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种令人作呕的液体最后转化为了武器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害，并迁移其所有负面效果
+迁移：将目标的效果迁移至他的后一个单位上</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成扩散伤害，并施加1层点燃
+扩散3：对命中的第一、第二、第三个位置上的单位分别造成100%，60%，40%的伤害
+点燃：回合结束每层造成3点伤害，并按照层数转化为对应等级的烧伤，可叠加</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害，并施加3层恐惧，持续1回合
+恐惧：造成伤害的效率降低10%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害
+同色激励：每次有一张绿色牌被执行，则该卡牌白值+1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复6点费用
+干扰：激活后使自身后方的卡牌失效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>并驱散最前方队友的1个负面效果
+驱散：消除目标的增益效果</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>中断：摧毁一个最近激活的循环
 回复8点费用
-使后一张牌的效果数+3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>异色驱离 回费 后位增效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>同色激励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时激励</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌人造成伤害
-同色激励：激活时，队列中每有一张绿色牌，则该卡牌白值+1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复6点费用
-后位驱离：激活后使自身前方的卡牌失效</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>后位驱离</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>牌库抽5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>弃牌区抽满</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐久为10</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>直面自由世界</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>循环0/10</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>循环1/4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活后，将前一张牌的各种状态完全复制（包括费用、效果数、失效状态等）并添加到自身的队列前方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在即是一切</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>“这叫什么，灰勒一拳”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>“哎？我打三体人，真的假的”</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片娱乐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕裂，感染与重组，发生在细小的微响间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>老歪脖子树的圣遗物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我将，点燃大海</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>尘土下的猎人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>（他们）有锐利的鹰眼，可以复现别人的一切</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>军人，应该也要有这个觉悟吧</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活后获得1个持续1回合的1级增益：期货
-期货：回合开始额外回复8点费用，可叠加等级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>泡沫要加速了</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>尚可</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>干旱沙漠上的黄金</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对所有敌人造成伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImageMini</t>
+回复卡牌拥有者20点生命
+使后一张牌的白值+3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们应该也要有这个觉悟吧</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>把一种尖锐的蜂鸣器塞入弹丸，即使射偏也十分奏效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种地球禁术</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +630,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,14 +790,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1178,18 +1216,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1546,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EDB122-41F7-47AE-82FC-E0EB59EC4A9A}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -1591,13 +1623,13 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
@@ -1608,22 +1640,22 @@
         <v>10101</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -1643,19 +1675,19 @@
         <v>10102</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -1678,7 +1710,7 @@
         <v>10103</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1687,10 +1719,10 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -1713,7 +1745,7 @@
         <v>10104</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1721,11 +1753,14 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
+      <c r="F5" t="s">
+        <v>120</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="H5" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -1745,7 +1780,7 @@
         <v>10105</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1754,13 +1789,13 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
@@ -1772,15 +1807,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10201</v>
+        <v>10106</v>
       </c>
       <c r="B7">
-        <v>10201</v>
+        <v>10106</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1789,48 +1824,48 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="H7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10202</v>
+        <v>10201</v>
       </c>
       <c r="B8">
-        <v>10202</v>
+        <v>10201</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -1844,25 +1879,28 @@
     </row>
     <row r="9" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>10203</v>
+        <v>10202</v>
       </c>
       <c r="B9">
-        <v>10203</v>
+        <v>10202</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>124</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -1874,30 +1912,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10204</v>
+        <v>10203</v>
       </c>
       <c r="B10">
-        <v>10204</v>
+        <v>10203</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -1909,30 +1947,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10205</v>
+        <v>10204</v>
       </c>
       <c r="B11">
-        <v>10205</v>
+        <v>10204</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -1944,100 +1982,100 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10301</v>
+        <v>10205</v>
       </c>
       <c r="B12">
-        <v>10301</v>
+        <v>10205</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10302</v>
+        <v>10206</v>
       </c>
       <c r="B13">
-        <v>10302</v>
+        <v>10206</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10303</v>
+        <v>10301</v>
       </c>
       <c r="B14">
-        <v>10303</v>
+        <v>10301</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -2051,28 +2089,28 @@
     </row>
     <row r="15" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10304</v>
+        <v>10302</v>
       </c>
       <c r="B15">
-        <v>10304</v>
+        <v>10302</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
         <v>23</v>
@@ -2086,25 +2124,28 @@
     </row>
     <row r="16" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10305</v>
+        <v>10303</v>
       </c>
       <c r="B16">
-        <v>10305</v>
+        <v>10303</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="H16" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
         <v>23</v>
@@ -2118,31 +2159,31 @@
     </row>
     <row r="17" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>10401</v>
+        <v>10304</v>
       </c>
       <c r="B17">
-        <v>10401</v>
+        <v>10304</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2151,30 +2192,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10402</v>
+        <v>10305</v>
       </c>
       <c r="B18">
-        <v>10402</v>
+        <v>10305</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>132</v>
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>142</v>
       </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2185,63 +2229,66 @@
     </row>
     <row r="19" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>10403</v>
+        <v>10306</v>
       </c>
       <c r="B19">
-        <v>10403</v>
+        <v>10306</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
       <c r="G19" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10401</v>
+      </c>
+      <c r="B20">
+        <v>10401</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
         <v>32</v>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>10404</v>
-      </c>
-      <c r="B20">
-        <v>10404</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="H20" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2252,31 +2299,28 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>10405</v>
+        <v>10402</v>
       </c>
       <c r="B21">
-        <v>10405</v>
+        <v>10402</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>136</v>
+      <c r="G21" t="s">
+        <v>102</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2285,27 +2329,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>10501</v>
+        <v>10403</v>
       </c>
       <c r="B22">
-        <v>10501</v>
+        <v>10403</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>76</v>
+      <c r="G22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" t="s">
+        <v>95</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2316,22 +2363,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10502</v>
+        <v>10404</v>
       </c>
       <c r="B23">
-        <v>10502</v>
+        <v>10404</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" t="s">
+        <v>104</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2342,22 +2398,31 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10503</v>
+        <v>10405</v>
       </c>
       <c r="B24">
-        <v>10503</v>
+        <v>10405</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
+      <c r="F24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" t="s">
+        <v>91</v>
+      </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2368,22 +2433,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10504</v>
+        <v>10501</v>
       </c>
       <c r="B25">
-        <v>10504</v>
+        <v>10501</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -2394,22 +2462,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10505</v>
+        <v>10502</v>
       </c>
       <c r="B26">
-        <v>10505</v>
+        <v>10502</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2420,22 +2488,22 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10601</v>
+        <v>10503</v>
       </c>
       <c r="B27">
-        <v>10601</v>
+        <v>10503</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
       </c>
       <c r="I27" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2446,22 +2514,22 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10602</v>
+        <v>10504</v>
       </c>
       <c r="B28">
-        <v>10602</v>
+        <v>10504</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2472,22 +2540,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10603</v>
+        <v>10505</v>
       </c>
       <c r="B29">
-        <v>10603</v>
+        <v>10505</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2498,22 +2566,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10604</v>
+        <v>10601</v>
       </c>
       <c r="B30">
-        <v>10604</v>
+        <v>10601</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2524,22 +2592,22 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>10605</v>
+        <v>10602</v>
       </c>
       <c r="B31">
-        <v>10605</v>
+        <v>10602</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2550,22 +2618,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10701</v>
+        <v>10603</v>
       </c>
       <c r="B32">
-        <v>10701</v>
+        <v>10603</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2576,22 +2644,22 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>10702</v>
+        <v>10604</v>
       </c>
       <c r="B33">
-        <v>10702</v>
+        <v>10604</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2602,22 +2670,22 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>10703</v>
+        <v>10605</v>
       </c>
       <c r="B34">
-        <v>10703</v>
+        <v>10605</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2628,22 +2696,22 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10704</v>
+        <v>10701</v>
       </c>
       <c r="B35">
-        <v>10704</v>
+        <v>10701</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2654,22 +2722,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10705</v>
+        <v>10702</v>
       </c>
       <c r="B36">
-        <v>10705</v>
+        <v>10702</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2680,22 +2748,22 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10801</v>
+        <v>10703</v>
       </c>
       <c r="B37">
-        <v>10801</v>
+        <v>10703</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2706,22 +2774,22 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10802</v>
+        <v>10704</v>
       </c>
       <c r="B38">
-        <v>10802</v>
+        <v>10704</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2732,22 +2800,22 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>10803</v>
+        <v>10705</v>
       </c>
       <c r="B39">
-        <v>10803</v>
+        <v>10705</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2758,22 +2826,22 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>10804</v>
+        <v>10801</v>
       </c>
       <c r="B40">
-        <v>10804</v>
+        <v>10801</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2784,57 +2852,107 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>10802</v>
+      </c>
+      <c r="B41">
+        <v>10802</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10803</v>
+      </c>
+      <c r="B42">
+        <v>10803</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>10804</v>
+      </c>
+      <c r="B43">
+        <v>10804</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>10805</v>
       </c>
-      <c r="B41">
+      <c r="B44">
         <v>10805</v>
       </c>
-      <c r="C41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" t="s">
         <v>14</v>
       </c>
-      <c r="I41" t="s">
-        <v>71</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/DataTableXl/DT_CardsUI.xlsx
+++ b/DataTableXl/DT_CardsUI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTableXl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C9CFC1-C48F-4FE6-B1CF-66B91C6C4F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3E0673-F621-4F32-A611-8DBC2E2807C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{42B81260-985A-4B74-A2BA-B7DF455C8F63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42B81260-985A-4B74-A2BA-B7DF455C8F63}"/>
   </bookViews>
   <sheets>
     <sheet name="DT_CardsUI" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="244">
   <si>
     <t>---</t>
   </si>
@@ -49,19 +49,10 @@
     <t>attack</t>
   </si>
   <si>
-    <t>重复激活</t>
-  </si>
-  <si>
     <t>loop</t>
   </si>
   <si>
-    <t>耐久为3</t>
-  </si>
-  <si>
     <t>buff</t>
-  </si>
-  <si>
-    <t>一次性</t>
   </si>
   <si>
     <t>draw</t>
@@ -83,22 +74,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>欧鸥</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>气晴</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>灰勒塔德</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>重复激活</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>KeyWord</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -126,30 +105,12 @@
     <t>economic</t>
   </si>
   <si>
-    <t>山火</t>
-  </si>
-  <si>
-    <t>储能长枪</t>
-  </si>
-  <si>
-    <t>忠！诚！</t>
-  </si>
-  <si>
     <t>动员</t>
   </si>
   <si>
-    <t>虎拳</t>
-  </si>
-  <si>
-    <t>医学</t>
-  </si>
-  <si>
     <t>体检</t>
   </si>
   <si>
-    <t>奥术</t>
-  </si>
-  <si>
     <t>三体作息</t>
   </si>
   <si>
@@ -159,9 +120,6 @@
     <t>heal</t>
   </si>
   <si>
-    <t>激活使下一回合队列中的所有卡牌花费-1</t>
-  </si>
-  <si>
     <t>染指黄花</t>
   </si>
   <si>
@@ -174,196 +132,683 @@
     <t>自洁</t>
   </si>
   <si>
-    <t>耐久为1</t>
+    <t>撕裂，感染与重组，发生在细小的微响间</t>
+  </si>
+  <si>
+    <t>从牌库中抽5张牌</t>
+  </si>
+  <si>
+    <t>给予左右两张牌“待命”词条</t>
+  </si>
+  <si>
+    <t>治疗我方生命最低的角色10点生命值
+临色激励：执行前判断左右是否存在绿牌，每存在一张，临时效果增加100%</t>
+  </si>
+  <si>
+    <t>从弃牌堆抽牌至满
+从弃牌区中抽取若干牌，直到手牌区满</t>
+  </si>
+  <si>
+    <t>"所以，体检为什么产费啊！"</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Cards/Oo/Card_10101.Card_10101'</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>撕裂，感染与重组，发生在细小的微响间</t>
-  </si>
-  <si>
-    <t>正统天仓人，被网络驾驭的民族</t>
-  </si>
-  <si>
-    <t>逆风才显得帅啊</t>
-  </si>
-  <si>
-    <t>老歪脖子树的赠予</t>
-  </si>
-  <si>
-    <t>狗牌一亮，重返签年之剩</t>
-  </si>
-  <si>
-    <t>最后这种令人作呕的液体转化为了武器</t>
-  </si>
-  <si>
-    <t>对敌人造成伤害，并迁移其所有负面效果
-负面迁移：将目标的效果迁移至他的后一个单位上</t>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Icon/Icon_10101.Icon_10101'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>级层箭</t>
+  </si>
+  <si>
+    <t>梦醒时分</t>
+  </si>
+  <si>
+    <t>人皇步</t>
+  </si>
+  <si>
+    <t>普西宁</t>
+  </si>
+  <si>
+    <t>梦魇</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>对敌人造成伤害，并迁移其所有负面效果至他的后一个单位上</t>
   </si>
   <si>
     <t>回复费用
-待命：每次有一张牌被执行，则该卡牌白值+1</t>
-  </si>
-  <si>
-    <t>循环2/3
-单轮激活费用为2，循环总次数为3</t>
-  </si>
-  <si>
-    <t>1回合内，我方造成伤害会对目标附加1层1回合的“石毒”
-石毒：回合结束每层造成1点伤害，无视护甲，可叠加</t>
-  </si>
-  <si>
-    <t>从牌库中抽5张牌</t>
-  </si>
-  <si>
-    <t>对敌人造成伤害
-紫晶感染：向目标增添持续2回合“紫晶化”
-紫晶化：亡语，死亡时对相邻目标造成12点伤害</t>
-  </si>
-  <si>
-    <t>负面迁移</t>
-  </si>
-  <si>
-    <t>待命</t>
-  </si>
-  <si>
-    <t>循环2/3</t>
-  </si>
-  <si>
-    <t>石毒附加</t>
-  </si>
-  <si>
-    <t>牌库抽5</t>
-  </si>
-  <si>
-    <t>紫晶感染</t>
-  </si>
-  <si>
-    <t>扩散2 点燃1</t>
+待命：执行时，卡牌效果数增加等同已执行卡牌的数量</t>
+  </si>
+  <si>
+    <t>循环1/3
+单轮激活费用为1，循环总次数为3</t>
+  </si>
+  <si>
+    <t>1回合内，我方造成伤害会对目标附加1回合的“木毒”
+木毒：根据剩余回合数造成伤害，无视护甲与格挡，可叠加</t>
+  </si>
+  <si>
+    <t>对敌人造成伤害，并向目标增添负面效果：“紫晶化”和“逝命”
+紫晶化：Buff存在时，结算的目标护甲将会被无视
+逝命：亡语，死亡时对相邻目标造成12点伤害</t>
+  </si>
+  <si>
+    <t>对敌人造成伤害，并使目标的所有buff等级翻倍</t>
+  </si>
+  <si>
+    <t>回复欧鸥30点生命值
+立刻进行洗牌</t>
+  </si>
+  <si>
+    <t>提供1护甲，并提高卡牌拥有者90%的感染度</t>
+  </si>
+  <si>
+    <t>激活后，对除欧鸥外的所有单位造成伤害，并且施加2层恐惧，持续2回合
+恐惧：每层使单位的意识降低10%</t>
+  </si>
+  <si>
+    <t>正统阿仓人，被网络驾驭的民族</t>
+  </si>
+  <si>
+    <t>其实这张照片是在飞机发动机后面拍的，随后就被吹走了</t>
+  </si>
+  <si>
+    <t>谢谢老歪脖子树的赠予</t>
+  </si>
+  <si>
+    <t>重返签年之剩</t>
+  </si>
+  <si>
+    <t>最后这种混乱的液体做成了武器，你要尝尝吗？</t>
+  </si>
+  <si>
+    <t>吾心吾行澄如明镜，所作所为皆为正义</t>
+  </si>
+  <si>
+    <t>我超！鸥！</t>
+  </si>
+  <si>
+    <t>停下！欧鸥，不可以！</t>
+  </si>
+  <si>
+    <t>那是一个洁净的世界</t>
+  </si>
+  <si>
+    <t>好比是早晨6点的闹钟</t>
+  </si>
+  <si>
+    <t>欧鸥</t>
+  </si>
+  <si>
+    <t>火羽</t>
+  </si>
+  <si>
+    <t>蓄能长枪</t>
+  </si>
+  <si>
+    <t>永不饶恕</t>
+  </si>
+  <si>
+    <t>对峙</t>
+  </si>
+  <si>
+    <t>革命之火</t>
+  </si>
+  <si>
+    <t>压制</t>
+  </si>
+  <si>
+    <t>单兵火箭</t>
   </si>
   <si>
     <t>对敌人造成扩散伤害，并施加1层点燃
 扩散2：对命中的第一、第二、第三个位置上的单位分别造成100%，60%，40%的伤害
-点燃：回合结束每层造成3点伤害，并按照层数转化为对应等级的烧伤，可叠加</t>
-  </si>
-  <si>
-    <t>对敌人造成伤害
+点燃：回合结束每层造成3点伤害，清除并按照层数转化为对应等级的烧伤，可叠加
+烧伤：目标受到的下一次治疗不产生效果，而是使该buff等级-1</t>
+  </si>
+  <si>
+    <t>对敌人造成扩散伤害
+扩散2：对命中的第一、第二、第三个位置上的单位分别造成100%，60%，40%的伤害
 待命：每次有一张牌被执行，则该卡牌白值+1</t>
   </si>
   <si>
-    <t>恐惧3</t>
-  </si>
-  <si>
-    <t>对敌人造成伤害，并施加3层恐惧，持续1回合
-恐惧：每层使敌人造成伤害的效率降低10%</t>
-  </si>
-  <si>
-    <t>中断 回费 治疗 后位增幅</t>
+    <t>对敌人造成伤害，并施加4层恐惧，持续2回合
+恐惧：每层使单位的意识降低10%</t>
   </si>
   <si>
     <t>中断：摧毁一个最近激活的循环
 回复8点费用
-回复卡牌拥有者20点生命
-使后一张牌的白值+3</t>
-  </si>
-  <si>
-    <t>异色驱离 回费 后位增效</t>
-  </si>
-  <si>
-    <t>异色驱离：激活后使队列中的所有非同色卡牌失效
+回复本卡牌拥有者20点生命
+使后一张牌的效果数+3</t>
+  </si>
+  <si>
+    <t>驱离：激活后使队列中的所有非同色卡牌失效
 回复3点费用
-使后一张牌伤害临时增加300%</t>
-  </si>
-  <si>
-    <t>“待命”分配</t>
-  </si>
-  <si>
-    <t>给予左右两张牌“待命”词条</t>
-  </si>
-  <si>
-    <t>同色激励</t>
-  </si>
-  <si>
-    <t>对敌人造成伤害
-同色激励：每次有一张绿色牌被执行，则该卡牌白值+1</t>
-  </si>
-  <si>
-    <t>临色激励</t>
-  </si>
-  <si>
-    <t>治疗我方生命最低的角色10点生命值
-临色激励：执行前判断左右是否存在绿牌，每存在一张，临时效果增加100%</t>
-  </si>
-  <si>
-    <t>后位驱离</t>
-  </si>
-  <si>
-    <t>回复6点费用
-干扰：激活后使自身后方的卡牌失效</t>
-  </si>
-  <si>
-    <t>驱散</t>
-  </si>
-  <si>
-    <t>并驱散最前方队友的1个负面效果
-驱散：消除目标的增益效果</t>
-  </si>
-  <si>
-    <t>弃牌区抽满</t>
-  </si>
-  <si>
-    <t>从弃牌堆抽牌至满
-从弃牌区中抽取若干牌，直到手牌区满</t>
-  </si>
-  <si>
-    <t>投掷“火焰巴掌”！</t>
-  </si>
-  <si>
-    <t>哪个脑残开发出来的要蓄力的步枪！</t>
-  </si>
-  <si>
-    <t>把一种尖锐的蜂鸣器塞入弹丸，失射也奏效</t>
-  </si>
-  <si>
-    <t>这个医疗包的词条多的离谱</t>
-  </si>
-  <si>
-    <t>我们应该也要有这个觉悟吧</t>
-  </si>
-  <si>
-    <t>一种地球禁术</t>
-  </si>
-  <si>
-    <t>“这叫什么，灰勒一拳”</t>
-  </si>
-  <si>
-    <t>“我看你是找个借口不让我洗澡”</t>
-  </si>
-  <si>
-    <t>"所以，体检为什么产费啊！"</t>
-  </si>
-  <si>
-    <t>“你说的对，但是我是降临派”</t>
-  </si>
-  <si>
-    <t>“哎？我打三体人，真的假的”</t>
-  </si>
-  <si>
-    <t>“冥土追魂算外科还是内科”</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Cards/Oo/Card_10101.Card_10101'</t>
+使后一张牌效果数+10</t>
+  </si>
+  <si>
+    <t>对敌人造成扩散伤害，并施加1层点燃，弃牌时移除
+扩散2：对命中的第一、第二、第三个位置上的单位分别造成100%，60%，40%的伤害
+点燃：回合结束每层造成3点伤害，清除并按照层数转化为对应等级的烧伤，可叠加
+烧伤：目标受到的下一次治疗不产生效果，而是使该buff等级-1</t>
+  </si>
+  <si>
+    <t>你情愿和他化作一团火焰</t>
+  </si>
+  <si>
+    <t>这是哪个弱智研发出的蓄力步枪，还是要按住扳机的那种！</t>
+  </si>
+  <si>
+    <t>是小火车呜呜呜呜呜呜呜呜~~~</t>
+  </si>
+  <si>
+    <t>为什么这个梳子的词条这么多，甚至还有……改变画风的功能？</t>
+  </si>
+  <si>
+    <t>土星自治领死了20万人，我们也应该要有这个觉悟吧</t>
+  </si>
+  <si>
+    <t>这是一种在天堂之战养成，超然的基层感召能力</t>
+  </si>
+  <si>
+    <t>来！看看谁比较硬！</t>
+  </si>
+  <si>
+    <t>小飞棍来喽。</t>
+  </si>
+  <si>
+    <t>气晴</t>
+  </si>
+  <si>
+    <t>铁拳</t>
+  </si>
+  <si>
+    <t>内外科</t>
+  </si>
+  <si>
+    <t>宇宙安全声明</t>
+  </si>
+  <si>
+    <t>反复开刀</t>
+  </si>
+  <si>
+    <t>镇定剂</t>
+  </si>
+  <si>
+    <t>麻醉</t>
+  </si>
+  <si>
+    <t>紧急除颤</t>
+  </si>
+  <si>
+    <t>对目标造成伤害，并将造成的伤害治疗我方生命最低的角色
+待命：执行时，卡牌效果数增加等同已执行卡牌的数量</t>
+  </si>
+  <si>
+    <t>回复6点费用，并驱散最前方队友的1个负面效果</t>
+  </si>
+  <si>
+    <t>提升我方所有单位1护甲
+治疗全体角色20生命值
+使的我方角色获得持续2回合的效果：安全声明
+安全声明：我方角色的进攻效率下降90%，防御效率提升90%</t>
+  </si>
+  <si>
+    <t>激活使下一回合队列中的所有卡牌花费-1，卡牌效果数+1</t>
+  </si>
+  <si>
+    <t>对目标造成5次伤害</t>
+  </si>
+  <si>
+    <t>使我方感染度最高的目标感染度下降90%</t>
+  </si>
+  <si>
+    <t>复活一个最远离中场的角色</t>
+  </si>
+  <si>
+    <t>美丽新世界</t>
+  </si>
+  <si>
+    <t>百万英镑</t>
+  </si>
+  <si>
+    <t>金融风暴</t>
+  </si>
+  <si>
+    <t>主管</t>
+  </si>
+  <si>
+    <t>空袭</t>
+  </si>
+  <si>
+    <t>冷藏</t>
+  </si>
+  <si>
+    <t>封锁</t>
+  </si>
+  <si>
+    <t>驱动星门秘钥</t>
+  </si>
+  <si>
+    <t>南向颠覆特快</t>
+  </si>
+  <si>
+    <t>公海</t>
+  </si>
+  <si>
+    <t>衍生集团</t>
+  </si>
+  <si>
+    <t>私掠战机</t>
+  </si>
+  <si>
+    <t>司级舰</t>
+  </si>
+  <si>
+    <t>新星火花</t>
+  </si>
+  <si>
+    <t>循环0/10
+单轮激活费用为0，循环总次数为10</t>
+  </si>
+  <si>
+    <t>激活后获得1个持续1回合的增益：期货
+期货：每层使回合结束回复8点费用，可叠加</t>
+  </si>
+  <si>
+    <t>清空双方的费用，并获得等级等同于当前手牌中【衍生集团】数量的增益：期货</t>
+  </si>
+  <si>
+    <t>循环1/4
+单轮激活费用为1，循环总次数为4</t>
+  </si>
+  <si>
+    <t>对敌方所有单位造成伤害，且每有一张【衍生集团】本卡牌进攻效率提升50%</t>
+  </si>
+  <si>
+    <t>移出手牌中的所有【衍生集团】</t>
+  </si>
+  <si>
+    <t>为敌人增加等同本卡牌费用的花费，使本回合不结算敌方队列</t>
+  </si>
+  <si>
+    <t>在【私掠战机】、【司级舰】、【活星】中随机选取一张加入手牌，弃牌时销毁</t>
+  </si>
+  <si>
+    <t>为敌人增加等同本卡牌费用的花费，根据手牌中【衍生集团】的数量，决定卡牌效果，弃牌时销毁
+1张：敌方效果数下降10%
+3张：敌方所有卡牌花费+2
+4张：清空所有敌方的护甲
+5张：敌方队伍中剩余血量最小的单位将会直接死亡
+8张：敌方的生命值将会被削弱至1点</t>
+  </si>
+  <si>
+    <t>为敌人增加等同本卡牌费用的花费，同时添加3张【衍生集团】到抽牌堆中</t>
+  </si>
+  <si>
+    <t>该牌没有效果，弃牌时给予3点费用，并销毁</t>
+  </si>
+  <si>
+    <t>对敌方所有单位造成伤害；你的回合结束时，此卡牌将返回手中，且每有一张【衍生集团】本卡牌进攻效率提升50%</t>
+  </si>
+  <si>
+    <t>对敌方所有单位造成伤害；首次激活不会造成伤害，你的回合结束时，此卡牌将返回手中，且每有一张【衍生集团】本卡牌进攻效率提升50%</t>
+  </si>
+  <si>
+    <t>对敌方所有单位造成伤害；前3次激活不会造成伤害，你的回合结束时，此卡牌将返回手中。且每有一张【衍生集团】本卡牌进攻效率提升50%</t>
+  </si>
+  <si>
+    <t>Mission</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>∞</t>
+  </si>
+  <si>
+    <t>获得1层持续时间∞的效果：人皇步
+人皇步：每一层使单位完全闪避一次伤害</t>
+  </si>
+  <si>
+    <t>“这叫什么，塔德一拳！”</t>
+  </si>
+  <si>
+    <t>“我看你就是又找个借口不让我洗澡，哼。”</t>
+  </si>
+  <si>
+    <t>“降临派看了直摇头。”</t>
+  </si>
+  <si>
+    <t>“我打三体人，真的假的。”</t>
+  </si>
+  <si>
+    <t>“嗯？冥土追魂算外科还是内科。”</t>
+  </si>
+  <si>
+    <t>“不是不是不是，这这这不对吧，我，我错了错了再也不敢了。”</t>
+  </si>
+  <si>
+    <t>谁控制现在，谁就控制过去；谁控制过去，谁就控制未来；</t>
+  </si>
+  <si>
+    <t>虽然地球信用点在这里不流通，但是所有人都知道，这个余额的数量级意味着什么</t>
+  </si>
+  <si>
+    <t>嗯，这确实是个艰难的问题。但请记住，我们是在为更伟大的目标筹集资金，它们总有出路不是吗？</t>
+  </si>
+  <si>
+    <t>好好使用它们</t>
+  </si>
+  <si>
+    <t>好吧，那就让炸弹去跟他们谈判吧</t>
+  </si>
+  <si>
+    <t>羽翼，可化作万物</t>
+  </si>
+  <si>
+    <t>我反感用这个东西，这让我想到我父亲……</t>
+  </si>
+  <si>
+    <t>团结在同一面旗帜下，同一面利益的旗帜</t>
+  </si>
+  <si>
+    <t>“……当然，公司将严重打击在公司特许区内进行的私掠行为。”</t>
+  </si>
+  <si>
+    <t>“……那是“康采恩”级，比点点星光要有意义。”</t>
+  </si>
+  <si>
+    <t>“……全银河最优秀的星际采矿机，我们称之为高效！”</t>
+  </si>
+  <si>
+    <t>金多</t>
+  </si>
+  <si>
+    <t>公关</t>
+  </si>
+  <si>
+    <t>接管</t>
+  </si>
+  <si>
+    <t>神话</t>
+  </si>
+  <si>
+    <t>广播协会</t>
+  </si>
+  <si>
+    <t>公报</t>
+  </si>
+  <si>
+    <t>大闪光灯</t>
+  </si>
+  <si>
+    <t>高塔</t>
+  </si>
+  <si>
+    <t>致电</t>
+  </si>
+  <si>
+    <t>新闻学</t>
+  </si>
+  <si>
+    <t>深层国家</t>
+  </si>
+  <si>
+    <t>通讯手稿</t>
+  </si>
+  <si>
+    <t>歼灭</t>
+  </si>
+  <si>
+    <t>使本卡牌及其左右各1张卡牌拥有者的意识提高100％</t>
+  </si>
+  <si>
+    <t>变更后一张卡牌的拥有者，使其属于玻海，弃牌后归还</t>
+  </si>
+  <si>
+    <t>执行后使左右各1张牌脱离失效状态</t>
+  </si>
+  <si>
+    <t>以此卡牌为中心，复制左、右各1张牌范围内的最高效果数，并同步给该范围内的其他卡牌</t>
+  </si>
+  <si>
+    <t>我方行动队列额外获得两个执行位置，持续2回合</t>
+  </si>
+  <si>
+    <t>随机使1个未陷入致盲的敌人陷入致盲，持续4回合
+致盲：该角色的所有卡牌将被视为失效</t>
+  </si>
+  <si>
+    <t>给予我方最靠近中场单位增益：高塔
+高塔：获得50点临时生命值，持续3回合，当临时生命值归零时buff消失；每次收到攻击的伤害将同步记入buff等级，当buff持续时间结束时，对随机单位造成等级*3的伤害</t>
+  </si>
+  <si>
+    <t>变更前两张友方卡牌的拥有者，使其属于玻海，并且重新激活他们，弃牌后归还</t>
+  </si>
+  <si>
+    <t>激活后，卡牌轮序的执行方向将会立刻翻转</t>
+  </si>
+  <si>
+    <t>获得持续1回合的减益：通灵
+通灵：使角色的意识达到最高，回合耗尽时获得3回合的减益：绝望
+绝望：角色的意识将会被锁定为0</t>
+  </si>
+  <si>
+    <t>使卡牌拥有者的意识提高100%</t>
+  </si>
+  <si>
+    <t>对敌人造成伤害，同时将伤害到全场另一个非自身单位</t>
+  </si>
+  <si>
+    <t>我不是风控，自己收拾你带的节奏</t>
+  </si>
+  <si>
+    <t>啊啊嗯……发出不想加班的声音</t>
+  </si>
+  <si>
+    <t>信仰，没见过信仰的力量吗？</t>
+  </si>
+  <si>
+    <t>有一种意识，凌驾于所有之上</t>
+  </si>
+  <si>
+    <t>申请完了，他们同意了</t>
+  </si>
+  <si>
+    <t>哎哎，切记，拍猫咪的时候记得关掉它</t>
+  </si>
+  <si>
+    <t>他们都开玩笑说，这才是顶级地球禁术，可以扭转万象</t>
+  </si>
+  <si>
+    <t>Vlog又该更新了，Vlog又该更新，V……不想剪视频</t>
+  </si>
+  <si>
+    <t>“……”</t>
+  </si>
+  <si>
+    <t>哎，你，借你号是让你看的，你别拿我号冲塔啊！</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Icon/Icon_10101.Icon_10101'</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>波海</t>
+  </si>
+  <si>
+    <t>玻海</t>
+  </si>
+  <si>
+    <t>先科</t>
+  </si>
+  <si>
+    <t>“堤丰”</t>
+  </si>
+  <si>
+    <t>“浮士德”</t>
+  </si>
+  <si>
+    <t>“失压”</t>
+  </si>
+  <si>
+    <t>“涡流”</t>
+  </si>
+  <si>
+    <t>“伦理”</t>
+  </si>
+  <si>
+    <t>“无光之海”</t>
+  </si>
+  <si>
+    <t>“子音”</t>
+  </si>
+  <si>
+    <t>“实验”</t>
+  </si>
+  <si>
+    <t>discard</t>
+  </si>
+  <si>
+    <t>丹佛</t>
+  </si>
+  <si>
+    <t>补刀攻击</t>
+  </si>
+  <si>
+    <t>紧急援救</t>
+  </si>
+  <si>
+    <t>法风机关</t>
+  </si>
+  <si>
+    <t>公务网络</t>
+  </si>
+  <si>
+    <t>冥河之翼</t>
+  </si>
+  <si>
+    <t>太阳子嗣</t>
+  </si>
+  <si>
+    <t>犁庭扫穴</t>
+  </si>
+  <si>
+    <t>秘密警察</t>
+  </si>
+  <si>
+    <t>我们的海</t>
+  </si>
+  <si>
+    <t>星祝</t>
+  </si>
+  <si>
+    <t>对敌人造成伤害，后续激活攻击牌都会使此牌发动攻击</t>
+  </si>
+  <si>
+    <t>队列结算时，如果有角色陷入重伤，则立即激活该牌</t>
+  </si>
+  <si>
+    <t>如果位于首位，则立刻销毁</t>
+  </si>
+  <si>
+    <t>将后一张卡牌复制一张并插入到手牌中，同时为该手牌添加移除词条</t>
+  </si>
+  <si>
+    <t>对敌人造成伤害，每次激活一张卡牌，该卡牌将与前一张卡牌交换位置</t>
+  </si>
+  <si>
+    <t>激活后，在本轮行动结束时，除这一张以外的所有卡牌将返回手中</t>
+  </si>
+  <si>
+    <t>激活后，直接丢弃敌方队列中的所有敌人手牌</t>
+  </si>
+  <si>
+    <t>激活后，将我方队列中的所有卡牌变为绿色</t>
+  </si>
+  <si>
+    <t>立刻进行一次弃牌库洗牌</t>
+  </si>
+  <si>
+    <t>此牌会造成2次伤害</t>
+  </si>
+  <si>
+    <t>获得持续2回合的增益：交易
+交易：每弃置一张牌，会使该buff的等级+1，进攻结算开始时，我方队列中的卡牌效果数将会增加等同交易等级的数字，当持续时间内再次激活buff可刷新持续时间且继承强化等级</t>
+  </si>
+  <si>
+    <t>使全场目标陷入眩晕，持续1回合
+眩晕：使该单位的所有卡牌失效</t>
+  </si>
+  <si>
+    <t>执行该卡牌会丢弃牌库中的一张卡牌</t>
+  </si>
+  <si>
+    <t>弃置所有手牌区中的手牌</t>
+  </si>
+  <si>
+    <t>使全场目标陷入3层恐惧，持续1回合</t>
+  </si>
+  <si>
+    <t>对一个敌人造成伤害，同时丢弃一张手牌，抽取一张手牌</t>
+  </si>
+  <si>
+    <t>提升一个友军单位的偏执，同时生成一张【实验药物】到手中</t>
+  </si>
+  <si>
+    <t>希望你不会遇到压电水晶</t>
+  </si>
+  <si>
+    <t>腐化</t>
+  </si>
+  <si>
+    <t>走私</t>
+  </si>
+  <si>
+    <t>保护伞</t>
+  </si>
+  <si>
+    <t>自谋生路</t>
+  </si>
+  <si>
+    <t>黄金雨</t>
+  </si>
+  <si>
+    <t>背叛</t>
+  </si>
+  <si>
+    <t>盟帮</t>
+  </si>
+  <si>
+    <t>对单位造成伤害，并抽取敌方等同于最终伤害的费用</t>
+  </si>
+  <si>
+    <t>使本队列中所有未失效卡牌失效，并获取等于其花费的费用</t>
+  </si>
+  <si>
+    <t>每次开始循环，获得3点费用，但该卡牌后续的卡牌花费+1</t>
+  </si>
+  <si>
+    <t>丢弃一张牌，并获得等同于此牌的费用</t>
+  </si>
+  <si>
+    <t>立刻消耗我方所有费用，对单个敌人造成本次消耗费用*3的伤害</t>
+  </si>
+  <si>
+    <t>将此卡牌后的一张卡牌与另一个队列中的第一张交换</t>
+  </si>
+  <si>
+    <t>将所有高于3点的卡牌降低花费至3点，并生成4张【直连之羽】到手中</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +981,20 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -965,7 +1424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,6 +1442,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1339,10 +1816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EDB122-41F7-47AE-82FC-E0EB59EC4A9A}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1374,10 +1851,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1386,661 +1863,2391 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>10101</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>10101</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>10102</v>
+      </c>
+      <c r="B3" s="6">
+        <v>10102</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>10103</v>
+      </c>
+      <c r="B4" s="6">
+        <v>10103</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>10104</v>
+      </c>
+      <c r="B5" s="6">
+        <v>10104</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>10105</v>
+      </c>
+      <c r="B6" s="6">
+        <v>10105</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>10106</v>
+      </c>
+      <c r="B7" s="6">
+        <v>10106</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>10107</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10107</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>10108</v>
+      </c>
+      <c r="B9" s="6">
+        <v>10108</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10102</v>
-      </c>
-      <c r="B3">
-        <v>10102</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="H9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>10109</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10109</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10110</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10110</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10103</v>
-      </c>
-      <c r="B4">
-        <v>10103</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10161</v>
+      </c>
+      <c r="B12" s="6">
+        <v>10161</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10104</v>
-      </c>
-      <c r="B5">
-        <v>10104</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="H12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10201</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10201</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10105</v>
-      </c>
-      <c r="B6">
-        <v>10105</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>10106</v>
-      </c>
-      <c r="B7">
-        <v>10106</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>10201</v>
-      </c>
-      <c r="B8">
-        <v>10201</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    </row>
+    <row r="14" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>10202</v>
       </c>
-      <c r="B9">
+      <c r="B14" s="2">
         <v>10202</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10203</v>
-      </c>
-      <c r="B10">
-        <v>10203</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10204</v>
-      </c>
-      <c r="B11">
-        <v>10204</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10205</v>
-      </c>
-      <c r="B12">
-        <v>10205</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10206</v>
-      </c>
-      <c r="B13">
-        <v>10206</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10301</v>
-      </c>
-      <c r="B14">
-        <v>10301</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>10203</v>
+      </c>
+      <c r="B15" s="2">
+        <v>10203</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>10204</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10204</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>10205</v>
+      </c>
+      <c r="B17" s="2">
+        <v>10205</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>10206</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10206</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>10207</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10207</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>10208</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10208</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>10209</v>
+      </c>
+      <c r="B21" s="2">
+        <v>10209</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>10210</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10210</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>10301</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10301</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>10302</v>
+      </c>
+      <c r="B24" s="2">
+        <v>10302</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>10303</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10303</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>10304</v>
+      </c>
+      <c r="B26" s="2">
+        <v>10304</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>10305</v>
+      </c>
+      <c r="B27" s="2">
+        <v>10305</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>10306</v>
+      </c>
+      <c r="B28" s="2">
+        <v>10306</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>10307</v>
+      </c>
+      <c r="B29" s="2">
+        <v>10307</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>10308</v>
+      </c>
+      <c r="B30" s="2">
+        <v>10308</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>10309</v>
+      </c>
+      <c r="B31" s="2">
+        <v>10309</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>10310</v>
+      </c>
+      <c r="B32" s="2">
+        <v>10310</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>10401</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10401</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>10302</v>
-      </c>
-      <c r="B15">
-        <v>10302</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>10303</v>
-      </c>
-      <c r="B16">
-        <v>10303</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E33" s="2">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>10402</v>
+      </c>
+      <c r="B34" s="2">
+        <v>10402</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>10403</v>
+      </c>
+      <c r="B35" s="2">
+        <v>10403</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>10404</v>
+      </c>
+      <c r="B36" s="2">
+        <v>10404</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="2">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>10405</v>
+      </c>
+      <c r="B37" s="2">
+        <v>10405</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>10406</v>
+      </c>
+      <c r="B38" s="2">
+        <v>10406</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10304</v>
-      </c>
-      <c r="B17">
-        <v>10304</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>10407</v>
+      </c>
+      <c r="B39" s="2">
+        <v>10407</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>10408</v>
+      </c>
+      <c r="B40" s="2">
+        <v>10408</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>10305</v>
-      </c>
-      <c r="B18">
-        <v>10305</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="E40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>10409</v>
+      </c>
+      <c r="B41" s="2">
+        <v>10409</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>10306</v>
-      </c>
-      <c r="B19">
-        <v>10306</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>10410</v>
+      </c>
+      <c r="B42" s="2">
+        <v>10410</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>10461</v>
+      </c>
+      <c r="B43" s="2">
+        <v>10461</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>10462</v>
+      </c>
+      <c r="B44" s="2">
+        <v>10462</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>10463</v>
+      </c>
+      <c r="B45" s="2">
+        <v>10463</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>10464</v>
+      </c>
+      <c r="B46" s="2">
+        <v>10464</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>10501</v>
+      </c>
+      <c r="B47" s="2">
+        <v>10501</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>18</v>
+      <c r="E47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>10502</v>
+      </c>
+      <c r="B48" s="2">
+        <v>10502</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>10503</v>
+      </c>
+      <c r="B49" s="2">
+        <v>10503</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>10504</v>
+      </c>
+      <c r="B50" s="2">
+        <v>10504</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>10505</v>
+      </c>
+      <c r="B51" s="2">
+        <v>10505</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>10506</v>
+      </c>
+      <c r="B52" s="2">
+        <v>10506</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>10507</v>
+      </c>
+      <c r="B53" s="2">
+        <v>10507</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>10508</v>
+      </c>
+      <c r="B54" s="2">
+        <v>10508</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>10509</v>
+      </c>
+      <c r="B55" s="2">
+        <v>10509</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>10510</v>
+      </c>
+      <c r="B56" s="2">
+        <v>10510</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>10561</v>
+      </c>
+      <c r="B57" s="2">
+        <v>10561</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>10562</v>
+      </c>
+      <c r="B58" s="2">
+        <v>10562</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>10601</v>
+      </c>
+      <c r="B59" s="2">
+        <v>10601</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>10602</v>
+      </c>
+      <c r="B60" s="2">
+        <v>10602</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>10603</v>
+      </c>
+      <c r="B61" s="2">
+        <v>10603</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>10604</v>
+      </c>
+      <c r="B62" s="2">
+        <v>10604</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>10605</v>
+      </c>
+      <c r="B63" s="2">
+        <v>10605</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>10606</v>
+      </c>
+      <c r="B64" s="2">
+        <v>10606</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>10607</v>
+      </c>
+      <c r="B65" s="2">
+        <v>10607</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>10608</v>
+      </c>
+      <c r="B66" s="2">
+        <v>10608</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>10609</v>
+      </c>
+      <c r="B67" s="2">
+        <v>10609</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>10610</v>
+      </c>
+      <c r="B68" s="2">
+        <v>10610</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>10701</v>
+      </c>
+      <c r="B69" s="2">
+        <v>10701</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>10702</v>
+      </c>
+      <c r="B70" s="2">
+        <v>10702</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>10703</v>
+      </c>
+      <c r="B71" s="2">
+        <v>10703</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="2">
+        <v>2</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>10704</v>
+      </c>
+      <c r="B72" s="2">
+        <v>10704</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>10705</v>
+      </c>
+      <c r="B73" s="2">
+        <v>10705</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>10706</v>
+      </c>
+      <c r="B74" s="2">
+        <v>10706</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>10707</v>
+      </c>
+      <c r="B75" s="2">
+        <v>10707</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="I75" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>10708</v>
+      </c>
+      <c r="B76" s="2">
+        <v>10708</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>10709</v>
+      </c>
+      <c r="B77" s="2">
+        <v>10709</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>10710</v>
+      </c>
+      <c r="B78" s="2">
+        <v>10710</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>10801</v>
+      </c>
+      <c r="B79" s="2">
+        <v>10801</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>10802</v>
+      </c>
+      <c r="B80" s="2">
+        <v>10802</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>10803</v>
+      </c>
+      <c r="B81" s="2">
+        <v>10803</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" s="2">
+        <v>2</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>10804</v>
+      </c>
+      <c r="B82" s="2">
+        <v>10804</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="G82" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>10805</v>
+      </c>
+      <c r="B83" s="2">
+        <v>10805</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>10806</v>
+      </c>
+      <c r="B84" s="2">
+        <v>10806</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>10807</v>
+      </c>
+      <c r="B85" s="2">
+        <v>10807</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>10808</v>
+      </c>
+      <c r="B86" s="2">
+        <v>10808</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>10809</v>
+      </c>
+      <c r="B87" s="2">
+        <v>10809</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>10810</v>
+      </c>
+      <c r="B88" s="2">
+        <v>10810</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DataTableXl/DT_CardsUI.xlsx
+++ b/DataTableXl/DT_CardsUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTableXl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3E0673-F621-4F32-A611-8DBC2E2807C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29C8392-4BA1-4F4D-B0C9-A672179790AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42B81260-985A-4B74-A2BA-B7DF455C8F63}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="315">
   <si>
     <t>---</t>
   </si>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>KeyWord</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Level</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -133,12 +129,6 @@
   </si>
   <si>
     <t>撕裂，感染与重组，发生在细小的微响间</t>
-  </si>
-  <si>
-    <t>从牌库中抽5张牌</t>
-  </si>
-  <si>
-    <t>给予左右两张牌“待命”词条</t>
   </si>
   <si>
     <t>治疗我方生命最低的角色10点生命值
@@ -212,9 +202,6 @@
 恐惧：每层使单位的意识降低10%</t>
   </si>
   <si>
-    <t>正统阿仓人，被网络驾驭的民族</t>
-  </si>
-  <si>
     <t>其实这张照片是在飞机发动机后面拍的，随后就被吹走了</t>
   </si>
   <si>
@@ -230,16 +217,7 @@
     <t>吾心吾行澄如明镜，所作所为皆为正义</t>
   </si>
   <si>
-    <t>我超！鸥！</t>
-  </si>
-  <si>
-    <t>停下！欧鸥，不可以！</t>
-  </si>
-  <si>
     <t>那是一个洁净的世界</t>
-  </si>
-  <si>
-    <t>好比是早晨6点的闹钟</t>
   </si>
   <si>
     <t>欧鸥</t>
@@ -292,34 +270,13 @@
 使后一张牌效果数+10</t>
   </si>
   <si>
-    <t>对敌人造成扩散伤害，并施加1层点燃，弃牌时移除
-扩散2：对命中的第一、第二、第三个位置上的单位分别造成100%，60%，40%的伤害
-点燃：回合结束每层造成3点伤害，清除并按照层数转化为对应等级的烧伤，可叠加
-烧伤：目标受到的下一次治疗不产生效果，而是使该buff等级-1</t>
-  </si>
-  <si>
-    <t>你情愿和他化作一团火焰</t>
-  </si>
-  <si>
-    <t>这是哪个弱智研发出的蓄力步枪，还是要按住扳机的那种！</t>
-  </si>
-  <si>
-    <t>是小火车呜呜呜呜呜呜呜呜~~~</t>
-  </si>
-  <si>
     <t>为什么这个梳子的词条这么多，甚至还有……改变画风的功能？</t>
   </si>
   <si>
     <t>土星自治领死了20万人，我们也应该要有这个觉悟吧</t>
   </si>
   <si>
-    <t>这是一种在天堂之战养成，超然的基层感召能力</t>
-  </si>
-  <si>
     <t>来！看看谁比较硬！</t>
-  </si>
-  <si>
-    <t>小飞棍来喽。</t>
   </si>
   <si>
     <t>气晴</t>
@@ -365,12 +322,6 @@
     <t>对目标造成5次伤害</t>
   </si>
   <si>
-    <t>使我方感染度最高的目标感染度下降90%</t>
-  </si>
-  <si>
-    <t>复活一个最远离中场的角色</t>
-  </si>
-  <si>
     <t>美丽新世界</t>
   </si>
   <si>
@@ -424,384 +375,653 @@
     <t>清空双方的费用，并获得等级等同于当前手牌中【衍生集团】数量的增益：期货</t>
   </si>
   <si>
-    <t>循环1/4
+    <t>对敌方所有单位造成伤害，且每有一张【衍生集团】本卡牌进攻效率提升50%</t>
+  </si>
+  <si>
+    <t>移出手牌中的所有【衍生集团】</t>
+  </si>
+  <si>
+    <t>为敌人增加等同本卡牌费用的花费，使本回合不结算敌方队列</t>
+  </si>
+  <si>
+    <t>在【私掠战机】、【司级舰】、【活星】中随机选取一张加入手牌，弃牌时销毁</t>
+  </si>
+  <si>
+    <t>为敌人增加等同本卡牌费用的花费，同时添加3张【衍生集团】到抽牌堆中</t>
+  </si>
+  <si>
+    <t>该牌没有效果，弃牌时给予3点费用，并销毁</t>
+  </si>
+  <si>
+    <t>对敌方所有单位造成伤害；你的回合结束时，此卡牌将返回手中，且每有一张【衍生集团】本卡牌进攻效率提升50%</t>
+  </si>
+  <si>
+    <t>对敌方所有单位造成伤害；首次激活不会造成伤害，你的回合结束时，此卡牌将返回手中，且每有一张【衍生集团】本卡牌进攻效率提升50%</t>
+  </si>
+  <si>
+    <t>对敌方所有单位造成伤害；前3次激活不会造成伤害，你的回合结束时，此卡牌将返回手中。且每有一张【衍生集团】本卡牌进攻效率提升50%</t>
+  </si>
+  <si>
+    <t>Mission</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>∞</t>
+  </si>
+  <si>
+    <t>“我看你就是又找个借口不让我洗澡，哼。”</t>
+  </si>
+  <si>
+    <t>“降临派看了直摇头。”</t>
+  </si>
+  <si>
+    <t>“我打三体人，真的假的。”</t>
+  </si>
+  <si>
+    <t>“不是不是不是，这这这不对吧，我，我错了错了再也不敢了。”</t>
+  </si>
+  <si>
+    <t>谁控制现在，谁就控制过去；谁控制过去，谁就控制未来；</t>
+  </si>
+  <si>
+    <t>嗯，这确实是个艰难的问题。但请记住，我们是在为更伟大的目标筹集资金，它们总有出路不是吗？</t>
+  </si>
+  <si>
+    <t>团结在同一面旗帜下，同一面利益的旗帜</t>
+  </si>
+  <si>
+    <t>“……当然，公司将严重打击在公司特许区内进行的私掠行为。”</t>
+  </si>
+  <si>
+    <t>“……那是“康采恩”级，比点点星光要有意义。”</t>
+  </si>
+  <si>
+    <t>“……全银河最优秀的星际采矿机，我们称之为高效！”</t>
+  </si>
+  <si>
+    <t>金多</t>
+  </si>
+  <si>
+    <t>公关</t>
+  </si>
+  <si>
+    <t>接管</t>
+  </si>
+  <si>
+    <t>神话</t>
+  </si>
+  <si>
+    <t>广播协会</t>
+  </si>
+  <si>
+    <t>公报</t>
+  </si>
+  <si>
+    <t>大闪光灯</t>
+  </si>
+  <si>
+    <t>高塔</t>
+  </si>
+  <si>
+    <t>致电</t>
+  </si>
+  <si>
+    <t>新闻学</t>
+  </si>
+  <si>
+    <t>深层国家</t>
+  </si>
+  <si>
+    <t>通讯手稿</t>
+  </si>
+  <si>
+    <t>歼灭</t>
+  </si>
+  <si>
+    <t>使本卡牌及其左右各1张卡牌拥有者的意识提高100％</t>
+  </si>
+  <si>
+    <t>变更后一张卡牌的拥有者，使其属于玻海，弃牌后归还</t>
+  </si>
+  <si>
+    <t>执行后使左右各1张牌脱离失效状态</t>
+  </si>
+  <si>
+    <t>以此卡牌为中心，复制左、右各1张牌范围内的最高效果数，并同步给该范围内的其他卡牌</t>
+  </si>
+  <si>
+    <t>我方行动队列额外获得两个执行位置，持续2回合</t>
+  </si>
+  <si>
+    <t>随机使1个未陷入致盲的敌人陷入致盲，持续4回合
+致盲：该角色的所有卡牌将被视为失效</t>
+  </si>
+  <si>
+    <t>给予我方最靠近中场单位增益：高塔
+高塔：获得50点临时生命值，持续3回合，当临时生命值归零时buff消失；每次收到攻击的伤害将同步记入buff等级，当buff持续时间结束时，对随机单位造成等级*3的伤害</t>
+  </si>
+  <si>
+    <t>变更前两张友方卡牌的拥有者，使其属于玻海，并且重新激活他们，弃牌后归还</t>
+  </si>
+  <si>
+    <t>激活后，卡牌轮序的执行方向将会立刻翻转</t>
+  </si>
+  <si>
+    <t>获得持续1回合的减益：通灵
+通灵：使角色的意识达到最高，回合耗尽时获得3回合的减益：绝望
+绝望：角色的意识将会被锁定为0</t>
+  </si>
+  <si>
+    <t>使卡牌拥有者的意识提高100%</t>
+  </si>
+  <si>
+    <t>对敌人造成伤害，同时将伤害到全场另一个非自身单位</t>
+  </si>
+  <si>
+    <t>我不是风控，自己收拾你带的节奏</t>
+  </si>
+  <si>
+    <t>啊啊嗯……发出不想加班的声音</t>
+  </si>
+  <si>
+    <t>信仰，没见过信仰的力量吗？</t>
+  </si>
+  <si>
+    <t>有一种意识，凌驾于所有之上</t>
+  </si>
+  <si>
+    <t>申请完了，他们同意了</t>
+  </si>
+  <si>
+    <t>哎哎，切记，拍猫咪的时候记得关掉它</t>
+  </si>
+  <si>
+    <t>他们都开玩笑说，这才是顶级地球禁术，可以扭转万象</t>
+  </si>
+  <si>
+    <t>Vlog又该更新了，Vlog又该更新，V……不想剪视频</t>
+  </si>
+  <si>
+    <t>哎，你，借你号是让你看的，你别拿我号冲塔啊！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>波海</t>
+  </si>
+  <si>
+    <t>玻海</t>
+  </si>
+  <si>
+    <t>先科</t>
+  </si>
+  <si>
+    <t>discard</t>
+  </si>
+  <si>
+    <t>丹佛</t>
+  </si>
+  <si>
+    <t>补刀攻击</t>
+  </si>
+  <si>
+    <t>紧急援救</t>
+  </si>
+  <si>
+    <t>法风机关</t>
+  </si>
+  <si>
+    <t>公务网络</t>
+  </si>
+  <si>
+    <t>冥河之翼</t>
+  </si>
+  <si>
+    <t>犁庭扫穴</t>
+  </si>
+  <si>
+    <t>秘密警察</t>
+  </si>
+  <si>
+    <t>我们的海</t>
+  </si>
+  <si>
+    <t>星祝</t>
+  </si>
+  <si>
+    <t>对敌人造成伤害，后续激活攻击牌都会使此牌发动攻击</t>
+  </si>
+  <si>
+    <t>队列结算时，如果有角色陷入重伤，则立即激活该牌</t>
+  </si>
+  <si>
+    <t>将后一张卡牌复制一张并插入到手牌中，同时为该手牌添加移除词条</t>
+  </si>
+  <si>
+    <t>对敌人造成伤害，每次激活一张卡牌，该卡牌将与前一张卡牌交换位置</t>
+  </si>
+  <si>
+    <t>激活后，在本轮行动结束时，除这一张以外的所有卡牌将返回手中</t>
+  </si>
+  <si>
+    <t>立刻进行一次弃牌库洗牌</t>
+  </si>
+  <si>
+    <t>此牌会造成2次伤害</t>
+  </si>
+  <si>
+    <t>执行该卡牌会丢弃牌库中的一张卡牌</t>
+  </si>
+  <si>
+    <t>弃置所有手牌区中的手牌</t>
+  </si>
+  <si>
+    <t>使全场目标陷入3层恐惧，持续1回合</t>
+  </si>
+  <si>
+    <t>对一个敌人造成伤害，同时丢弃一张手牌，抽取一张手牌</t>
+  </si>
+  <si>
+    <t>希望你不会遇到压电水晶</t>
+  </si>
+  <si>
+    <t>腐化</t>
+  </si>
+  <si>
+    <t>走私</t>
+  </si>
+  <si>
+    <t>保护伞</t>
+  </si>
+  <si>
+    <t>自谋生路</t>
+  </si>
+  <si>
+    <t>黄金雨</t>
+  </si>
+  <si>
+    <t>背叛</t>
+  </si>
+  <si>
+    <t>盟帮</t>
+  </si>
+  <si>
+    <t>对单位造成伤害，并抽取敌方等同于最终伤害的费用</t>
+  </si>
+  <si>
+    <t>使本队列中所有未失效卡牌失效，并获取等于其花费的费用</t>
+  </si>
+  <si>
+    <t>立刻消耗我方所有费用，对单个敌人造成本次消耗费用*3的伤害</t>
+  </si>
+  <si>
+    <t>从牌库中抽数张牌，直到手牌区满</t>
+  </si>
+  <si>
+    <t>获得1层效果：人皇步
+人皇步：每一层使单位完全闪避一次伤害</t>
+  </si>
+  <si>
+    <t>比起看你我还是更喜欢看手机</t>
+  </si>
+  <si>
+    <t>烦躁程度，好比是早晨6点舍友的闹钟</t>
+  </si>
+  <si>
+    <t>你什么意思！你才中二呢！有点童心不好吗！</t>
+  </si>
+  <si>
+    <t>在是或否之间选了或</t>
+  </si>
+  <si>
+    <t>给予左右两张牌“待命”效果</t>
+  </si>
+  <si>
+    <t>激活后，将若干手牌插入队列，直到队列满或者手牌耗尽，并使这些卡牌的花费-2</t>
+  </si>
+  <si>
+    <t>使拥有者获得持续3回合的效果：革命之火
+革命之火：每次有卡牌失效时，记入等级+1；每一层使单位拥有的卡牌效果数+3。</t>
+  </si>
+  <si>
+    <t>使本队列未失效卡牌中费用最高和最低的卡牌失效</t>
+  </si>
+  <si>
+    <t>对敌人造成扩散伤害，无视护甲与偏执，并施加1层点燃，弃牌时移除
+扩散2：对命中的第一、第二、第三个位置上的单位分别造成100%，60%，40%的伤害
+点燃：回合结束每层造成3点伤害，清除并按照层数转化为对应等级的烧伤，可叠加
+烧伤：目标受到的下一次治疗不产生效果，而是使该buff等级-1</t>
+  </si>
+  <si>
+    <t>你不快滚，在期待什么，也化作一团火焰？</t>
+  </si>
+  <si>
+    <t>弱智……蓄力步枪，还是要按住扳机的那种！</t>
+  </si>
+  <si>
+    <t>小火车来喽，呜呜呜呜呜呜呜呜~~~</t>
+  </si>
+  <si>
+    <t>我们的心中都有一片血海，那就是天！堂！之！战！</t>
+  </si>
+  <si>
+    <t>奖池还在累计</t>
+  </si>
+  <si>
+    <t>枪口会射出血液，但不会射出鲜花</t>
+  </si>
+  <si>
+    <t>不是，有这个必要揣在身上吗</t>
+  </si>
+  <si>
+    <t>“好嘛，塔麻德一拳！”</t>
+  </si>
+  <si>
+    <t>“冥土追魂算外科还是内科。”</t>
+  </si>
+  <si>
+    <t>使我方感染度最高的目标感染度下降90%，并使其陷入眩晕。</t>
+  </si>
+  <si>
+    <t>“这下完了，欧鸥要被拉回去吃药了。”</t>
+  </si>
+  <si>
+    <t>对目标造成伤害，并且提供持续1回合的麻痹：
+麻痹：意识降低50%，并且收到的攻击伤害翻倍</t>
+  </si>
+  <si>
+    <t>“哇！你扎我干……zzz”</t>
+  </si>
+  <si>
+    <t>复活一个最远离中场的角色，并恢复其30点生命值</t>
+  </si>
+  <si>
+    <t>“嗯……我不是死了吗？天堂？”</t>
+  </si>
+  <si>
+    <t>虽然地球信用点在这里不流通，所有人都知道，这个余额的数量级意味着什么</t>
+  </si>
+  <si>
+    <t>循环1/4，每次激活循环使后续卡牌效果数+1
 单轮激活费用为1，循环总次数为4</t>
   </si>
   <si>
-    <t>对敌方所有单位造成伤害，且每有一张【衍生集团】本卡牌进攻效率提升50%</t>
-  </si>
-  <si>
-    <t>移出手牌中的所有【衍生集团】</t>
-  </si>
-  <si>
-    <t>为敌人增加等同本卡牌费用的花费，使本回合不结算敌方队列</t>
-  </si>
-  <si>
-    <t>在【私掠战机】、【司级舰】、【活星】中随机选取一张加入手牌，弃牌时销毁</t>
+    <t>认知滤网会梦见核心崩坏吗？</t>
+  </si>
+  <si>
+    <t>好吧，那我只能同意丢点炸弹去跟他们谈判了</t>
+  </si>
+  <si>
+    <t>典范，没有任何支撑，白手起家</t>
+  </si>
+  <si>
+    <t>奥兰，你这么会打架，你就不会用这6块钱创造一点借口吗？</t>
+  </si>
+  <si>
+    <t>我反感这个东西，这让我想到我父亲……</t>
   </si>
   <si>
     <t>为敌人增加等同本卡牌费用的花费，根据手牌中【衍生集团】的数量，决定卡牌效果，弃牌时销毁
-1张：敌方效果数下降10%
+1张：敌方意识永久下降10%
 3张：敌方所有卡牌花费+2
 4张：清空所有敌方的护甲
 5张：敌方队伍中剩余血量最小的单位将会直接死亡
 8张：敌方的生命值将会被削弱至1点</t>
   </si>
   <si>
-    <t>为敌人增加等同本卡牌费用的花费，同时添加3张【衍生集团】到抽牌堆中</t>
-  </si>
-  <si>
-    <t>该牌没有效果，弃牌时给予3点费用，并销毁</t>
-  </si>
-  <si>
-    <t>对敌方所有单位造成伤害；你的回合结束时，此卡牌将返回手中，且每有一张【衍生集团】本卡牌进攻效率提升50%</t>
-  </si>
-  <si>
-    <t>对敌方所有单位造成伤害；首次激活不会造成伤害，你的回合结束时，此卡牌将返回手中，且每有一张【衍生集团】本卡牌进攻效率提升50%</t>
-  </si>
-  <si>
-    <t>对敌方所有单位造成伤害；前3次激活不会造成伤害，你的回合结束时，此卡牌将返回手中。且每有一张【衍生集团】本卡牌进攻效率提升50%</t>
-  </si>
-  <si>
-    <t>Mission</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>∞</t>
-  </si>
-  <si>
-    <t>获得1层持续时间∞的效果：人皇步
-人皇步：每一层使单位完全闪避一次伤害</t>
-  </si>
-  <si>
-    <t>“这叫什么，塔德一拳！”</t>
-  </si>
-  <si>
-    <t>“我看你就是又找个借口不让我洗澡，哼。”</t>
-  </si>
-  <si>
-    <t>“降临派看了直摇头。”</t>
-  </si>
-  <si>
-    <t>“我打三体人，真的假的。”</t>
-  </si>
-  <si>
-    <t>“嗯？冥土追魂算外科还是内科。”</t>
-  </si>
-  <si>
-    <t>“不是不是不是，这这这不对吧，我，我错了错了再也不敢了。”</t>
-  </si>
-  <si>
-    <t>谁控制现在，谁就控制过去；谁控制过去，谁就控制未来；</t>
-  </si>
-  <si>
-    <t>虽然地球信用点在这里不流通，但是所有人都知道，这个余额的数量级意味着什么</t>
-  </si>
-  <si>
-    <t>嗯，这确实是个艰难的问题。但请记住，我们是在为更伟大的目标筹集资金，它们总有出路不是吗？</t>
-  </si>
-  <si>
-    <t>好好使用它们</t>
-  </si>
-  <si>
-    <t>好吧，那就让炸弹去跟他们谈判吧</t>
-  </si>
-  <si>
-    <t>羽翼，可化作万物</t>
-  </si>
-  <si>
-    <t>我反感用这个东西，这让我想到我父亲……</t>
-  </si>
-  <si>
-    <t>团结在同一面旗帜下，同一面利益的旗帜</t>
-  </si>
-  <si>
-    <t>“……当然，公司将严重打击在公司特许区内进行的私掠行为。”</t>
-  </si>
-  <si>
-    <t>“……那是“康采恩”级，比点点星光要有意义。”</t>
-  </si>
-  <si>
-    <t>“……全银河最优秀的星际采矿机，我们称之为高效！”</t>
-  </si>
-  <si>
-    <t>金多</t>
-  </si>
-  <si>
-    <t>公关</t>
-  </si>
-  <si>
-    <t>接管</t>
-  </si>
-  <si>
-    <t>神话</t>
-  </si>
-  <si>
-    <t>广播协会</t>
-  </si>
-  <si>
-    <t>公报</t>
-  </si>
-  <si>
-    <t>大闪光灯</t>
-  </si>
-  <si>
-    <t>高塔</t>
-  </si>
-  <si>
-    <t>致电</t>
-  </si>
-  <si>
-    <t>新闻学</t>
-  </si>
-  <si>
-    <t>深层国家</t>
-  </si>
-  <si>
-    <t>通讯手稿</t>
-  </si>
-  <si>
-    <t>歼灭</t>
-  </si>
-  <si>
-    <t>使本卡牌及其左右各1张卡牌拥有者的意识提高100％</t>
-  </si>
-  <si>
-    <t>变更后一张卡牌的拥有者，使其属于玻海，弃牌后归还</t>
-  </si>
-  <si>
-    <t>执行后使左右各1张牌脱离失效状态</t>
-  </si>
-  <si>
-    <t>以此卡牌为中心，复制左、右各1张牌范围内的最高效果数，并同步给该范围内的其他卡牌</t>
-  </si>
-  <si>
-    <t>我方行动队列额外获得两个执行位置，持续2回合</t>
-  </si>
-  <si>
-    <t>随机使1个未陷入致盲的敌人陷入致盲，持续4回合
-致盲：该角色的所有卡牌将被视为失效</t>
-  </si>
-  <si>
-    <t>给予我方最靠近中场单位增益：高塔
-高塔：获得50点临时生命值，持续3回合，当临时生命值归零时buff消失；每次收到攻击的伤害将同步记入buff等级，当buff持续时间结束时，对随机单位造成等级*3的伤害</t>
-  </si>
-  <si>
-    <t>变更前两张友方卡牌的拥有者，使其属于玻海，并且重新激活他们，弃牌后归还</t>
-  </si>
-  <si>
-    <t>激活后，卡牌轮序的执行方向将会立刻翻转</t>
-  </si>
-  <si>
-    <t>获得持续1回合的减益：通灵
-通灵：使角色的意识达到最高，回合耗尽时获得3回合的减益：绝望
-绝望：角色的意识将会被锁定为0</t>
-  </si>
-  <si>
-    <t>使卡牌拥有者的意识提高100%</t>
-  </si>
-  <si>
-    <t>对敌人造成伤害，同时将伤害到全场另一个非自身单位</t>
-  </si>
-  <si>
-    <t>我不是风控，自己收拾你带的节奏</t>
-  </si>
-  <si>
-    <t>啊啊嗯……发出不想加班的声音</t>
-  </si>
-  <si>
-    <t>信仰，没见过信仰的力量吗？</t>
-  </si>
-  <si>
-    <t>有一种意识，凌驾于所有之上</t>
-  </si>
-  <si>
-    <t>申请完了，他们同意了</t>
-  </si>
-  <si>
-    <t>哎哎，切记，拍猫咪的时候记得关掉它</t>
-  </si>
-  <si>
-    <t>他们都开玩笑说，这才是顶级地球禁术，可以扭转万象</t>
-  </si>
-  <si>
-    <t>Vlog又该更新了，Vlog又该更新，V……不想剪视频</t>
-  </si>
-  <si>
-    <t>“……”</t>
-  </si>
-  <si>
-    <t>哎，你，借你号是让你看的，你别拿我号冲塔啊！</t>
+    <t>金多！你怎么给法西斯送武器！你不知道他们天天宣传商会威胁论吗？</t>
+  </si>
+  <si>
+    <t>等到我们有了巡洋舰，就是他们来找我们谈航行自由了</t>
+  </si>
+  <si>
+    <t>对敌人造成伤害，并施加负面效果：歌颂
+歌颂：单位的意识提高50%，受到的所有伤害翻倍</t>
+  </si>
+  <si>
+    <t>获得持续1回合的全体减益：混淆
+我方承受的伤害将会由敌方承担，同时敌方承担的伤害将会由我方承担</t>
+  </si>
+  <si>
+    <t>对敌人及其左右单位造成范围伤害，非主目标承受90%的主体伤害</t>
+  </si>
+  <si>
+    <t>歌颂</t>
+  </si>
+  <si>
+    <t>混淆</t>
+  </si>
+  <si>
+    <t>抹黑</t>
+  </si>
+  <si>
+    <t>沉默寡言。</t>
+  </si>
+  <si>
+    <t>方案一，赞颂他们</t>
+  </si>
+  <si>
+    <t>方案二，干扰他们</t>
+  </si>
+  <si>
+    <t>方案三，贬低他们</t>
+  </si>
+  <si>
+    <t>塔尔塔罗斯！塔尔塔罗斯！</t>
+  </si>
+  <si>
+    <t>获得持续2回合的全场增益：交易
+交易：每弃置一张牌，会使该buff的等级+1，进攻结算开始时，我方队列中的卡牌效果数将会增加等同交易等级的数字，当持续时间内再次激活buff可重置持续时间且继承强化等级</t>
+  </si>
+  <si>
+    <t>你跟丹佛真是天造（孽）地设（死）的一对</t>
+  </si>
+  <si>
+    <t>使全场目标陷入眩晕，持续1回合
+眩晕：使该单位的所有卡牌失效，同时本体收到的所有伤害加3</t>
+  </si>
+  <si>
+    <t>你就说晕没晕住吧</t>
+  </si>
+  <si>
+    <t>急什么，你不是没死吗</t>
+  </si>
+  <si>
+    <t>超前三步，是什么水平</t>
+  </si>
+  <si>
+    <t>不要温柔地走近那个良夜</t>
+  </si>
+  <si>
+    <t>对敌人造成伤害，并将所有友军单位的偏执高60%</t>
+  </si>
+  <si>
+    <t>没什么别的意思，我就是来毁灭这个游戏的</t>
+  </si>
+  <si>
+    <t>对目标造成等同于卡牌拥有者意识*7的真实伤害</t>
+  </si>
+  <si>
+    <t>一般操作这个武器的都是精神衰弱者</t>
+  </si>
+  <si>
+    <t>使一个我方单位获得持续3回合的减益：盖亚
+盖亚：使拥有单位免受战斗伤害结算，并将结算结果记入该效果的等级，当效果消失时对本体造成等同于等级的伤害</t>
+  </si>
+  <si>
+    <t>命运早就在暗中标好了价格</t>
+  </si>
+  <si>
+    <t>堤丰</t>
+  </si>
+  <si>
+    <t>浮士德</t>
+  </si>
+  <si>
+    <t>失压</t>
+  </si>
+  <si>
+    <t>涡流</t>
+  </si>
+  <si>
+    <t>伦理</t>
+  </si>
+  <si>
+    <t>无光之海</t>
+  </si>
+  <si>
+    <t>辅音</t>
+  </si>
+  <si>
+    <t>轮椅</t>
+  </si>
+  <si>
+    <t>混沌</t>
+  </si>
+  <si>
+    <t>盖亚</t>
+  </si>
+  <si>
+    <t>天仓子嗣</t>
+  </si>
+  <si>
+    <t>无限制格斗</t>
+  </si>
+  <si>
+    <t>机不可失，时不再来呢。</t>
+  </si>
+  <si>
+    <t>你不是公务员吗，怎么什么都会啊</t>
+  </si>
+  <si>
+    <t>循环0/2，如果位于首位，则立刻销毁</t>
+  </si>
+  <si>
+    <t>毕竟，手心不会打到手背</t>
+  </si>
+  <si>
+    <t>仓北急电。陷入混乱状态</t>
+  </si>
+  <si>
+    <t>殖民地能有什么愿想呢，他们除了压榨自己人还会干什么</t>
+  </si>
+  <si>
+    <t>获得全局效果：无限制格斗
+无限制格斗：每回合开始使本效果等级+1，敌我所有卡牌执行时效果数增加等同该效果等级的数字</t>
+  </si>
+  <si>
+    <t>命运的齿轮开始越转越快</t>
+  </si>
+  <si>
+    <t>大清洗开始了</t>
+  </si>
+  <si>
+    <t>激活后，将同队列中的所有卡牌变为绿色</t>
+  </si>
+  <si>
+    <t>同化，完成。</t>
+  </si>
+  <si>
+    <t>当你离开大海，壳就该退化到心里去了</t>
+  </si>
+  <si>
+    <t>别计较嘛，金毛，又没算到你头上</t>
+  </si>
+  <si>
+    <t>直连人就是靠这个发财的，至少我是</t>
+  </si>
+  <si>
+    <t>循环0/2，每次开始循环，获得3点费用，但该卡牌后续的卡牌花费+1</t>
+  </si>
+  <si>
+    <t>我不是小鬼，你才是小鬼</t>
+  </si>
+  <si>
+    <t>随机丢弃一张牌，并获得等同于此牌花费的费用</t>
+  </si>
+  <si>
+    <t>危机就是转机，幸运日是不讲道理的</t>
+  </si>
+  <si>
+    <t>直视我啊？小崽种</t>
+  </si>
+  <si>
+    <t>将此卡牌后的一张卡牌与另一个队列中的第二张交换</t>
+  </si>
+  <si>
+    <t>啊啊啊啊啊！丹——佛——</t>
+  </si>
+  <si>
+    <t>将同队列所有高于3点的卡牌降低花费至3点，并将手牌中的随机3张替换为【直连之羽】</t>
+  </si>
+  <si>
+    <t>别担心，我还是有原则的，你的命会被我保住哦</t>
+  </si>
+  <si>
+    <t>激活后立刻打乱本队列的卡牌顺序</t>
+  </si>
+  <si>
+    <t>点我，一键炸翻血压仪</t>
+  </si>
+  <si>
+    <t>每次出现对手牌更改，对随机敌人造成3点伤害</t>
+  </si>
+  <si>
+    <t>黑白两道通吃</t>
+  </si>
+  <si>
+    <t>对目标施加持续3回合的负面效果：折磨
+折磨：效果存在时，目标的生命值不会下降到1以下，承受伤害溢出的部分将会+2后转移到其他同阵营单位上</t>
+  </si>
+  <si>
+    <t>一根蜡烛，你觉得差一个蛋糕，我觉得差一根皮鞭</t>
+  </si>
+  <si>
+    <t>小豆丁</t>
+  </si>
+  <si>
+    <t>机会</t>
+  </si>
+  <si>
+    <t>折磨</t>
+  </si>
+  <si>
+    <t>直连之羽</t>
+  </si>
+  <si>
+    <t>你再废话我要旱地行舟了</t>
+  </si>
+  <si>
+    <t>Color</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>波海</t>
-  </si>
-  <si>
-    <t>玻海</t>
-  </si>
-  <si>
-    <t>先科</t>
-  </si>
-  <si>
-    <t>“堤丰”</t>
-  </si>
-  <si>
-    <t>“浮士德”</t>
-  </si>
-  <si>
-    <t>“失压”</t>
-  </si>
-  <si>
-    <t>“涡流”</t>
-  </si>
-  <si>
-    <t>“伦理”</t>
-  </si>
-  <si>
-    <t>“无光之海”</t>
-  </si>
-  <si>
-    <t>“子音”</t>
-  </si>
-  <si>
-    <t>“实验”</t>
-  </si>
-  <si>
-    <t>discard</t>
-  </si>
-  <si>
-    <t>丹佛</t>
-  </si>
-  <si>
-    <t>补刀攻击</t>
-  </si>
-  <si>
-    <t>紧急援救</t>
-  </si>
-  <si>
-    <t>法风机关</t>
-  </si>
-  <si>
-    <t>公务网络</t>
-  </si>
-  <si>
-    <t>冥河之翼</t>
-  </si>
-  <si>
-    <t>太阳子嗣</t>
-  </si>
-  <si>
-    <t>犁庭扫穴</t>
-  </si>
-  <si>
-    <t>秘密警察</t>
-  </si>
-  <si>
-    <t>我们的海</t>
-  </si>
-  <si>
-    <t>星祝</t>
-  </si>
-  <si>
-    <t>对敌人造成伤害，后续激活攻击牌都会使此牌发动攻击</t>
-  </si>
-  <si>
-    <t>队列结算时，如果有角色陷入重伤，则立即激活该牌</t>
-  </si>
-  <si>
-    <t>如果位于首位，则立刻销毁</t>
-  </si>
-  <si>
-    <t>将后一张卡牌复制一张并插入到手牌中，同时为该手牌添加移除词条</t>
-  </si>
-  <si>
-    <t>对敌人造成伤害，每次激活一张卡牌，该卡牌将与前一张卡牌交换位置</t>
-  </si>
-  <si>
-    <t>激活后，在本轮行动结束时，除这一张以外的所有卡牌将返回手中</t>
-  </si>
-  <si>
-    <t>激活后，直接丢弃敌方队列中的所有敌人手牌</t>
-  </si>
-  <si>
-    <t>激活后，将我方队列中的所有卡牌变为绿色</t>
-  </si>
-  <si>
-    <t>立刻进行一次弃牌库洗牌</t>
-  </si>
-  <si>
-    <t>此牌会造成2次伤害</t>
-  </si>
-  <si>
-    <t>获得持续2回合的增益：交易
-交易：每弃置一张牌，会使该buff的等级+1，进攻结算开始时，我方队列中的卡牌效果数将会增加等同交易等级的数字，当持续时间内再次激活buff可刷新持续时间且继承强化等级</t>
-  </si>
-  <si>
-    <t>使全场目标陷入眩晕，持续1回合
-眩晕：使该单位的所有卡牌失效</t>
-  </si>
-  <si>
-    <t>执行该卡牌会丢弃牌库中的一张卡牌</t>
-  </si>
-  <si>
-    <t>弃置所有手牌区中的手牌</t>
-  </si>
-  <si>
-    <t>使全场目标陷入3层恐惧，持续1回合</t>
-  </si>
-  <si>
-    <t>对一个敌人造成伤害，同时丢弃一张手牌，抽取一张手牌</t>
-  </si>
-  <si>
-    <t>提升一个友军单位的偏执，同时生成一张【实验药物】到手中</t>
-  </si>
-  <si>
-    <t>希望你不会遇到压电水晶</t>
-  </si>
-  <si>
-    <t>腐化</t>
-  </si>
-  <si>
-    <t>走私</t>
-  </si>
-  <si>
-    <t>保护伞</t>
-  </si>
-  <si>
-    <t>自谋生路</t>
-  </si>
-  <si>
-    <t>黄金雨</t>
-  </si>
-  <si>
-    <t>背叛</t>
-  </si>
-  <si>
-    <t>盟帮</t>
-  </si>
-  <si>
-    <t>对单位造成伤害，并抽取敌方等同于最终伤害的费用</t>
-  </si>
-  <si>
-    <t>使本队列中所有未失效卡牌失效，并获取等于其花费的费用</t>
-  </si>
-  <si>
-    <t>每次开始循环，获得3点费用，但该卡牌后续的卡牌花费+1</t>
-  </si>
-  <si>
-    <t>丢弃一张牌，并获得等同于此牌的费用</t>
-  </si>
-  <si>
-    <t>立刻消耗我方所有费用，对单个敌人造成本次消耗费用*3的伤害</t>
-  </si>
-  <si>
-    <t>将此卡牌后的一张卡牌与另一个队列中的第一张交换</t>
-  </si>
-  <si>
-    <t>将所有高于3点的卡牌降低花费至3点，并生成4张【直连之羽】到手中</t>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Violet</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>对敌人造成伤害，同时将伤害全场另一个非自身单位</t>
+  </si>
+  <si>
+    <t>进步帮的人会迅速占领地盘，但忌惮直连治安，不能拳脚相向</t>
+  </si>
+  <si>
+    <t>激活后，使同方队列中的所有敌人卡牌失效</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1436,12 +1656,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1816,10 +2030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EDB122-41F7-47AE-82FC-E0EB59EC4A9A}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1827,9 +2041,8 @@
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="80.6640625" customWidth="1"/>
-    <col min="8" max="8" width="36.21875" customWidth="1"/>
+    <col min="6" max="6" width="80.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.21875" customWidth="1"/>
     <col min="11" max="11" width="80" customWidth="1"/>
     <col min="12" max="12" width="38.33203125" customWidth="1"/>
   </cols>
@@ -1851,391 +2064,413 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>10101</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10101</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>10101</v>
-      </c>
-      <c r="B2" s="6">
-        <v>10101</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>10102</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10102</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>10103</v>
+      </c>
+      <c r="B4" s="4">
+        <v>10103</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>10104</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10104</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>10105</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10105</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>10106</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10106</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="E7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>10107</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10107</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>10108</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10108</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>10109</v>
+      </c>
+      <c r="B10" s="4">
+        <v>10109</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>10102</v>
-      </c>
-      <c r="B3" s="6">
-        <v>10102</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>10103</v>
-      </c>
-      <c r="B4" s="6">
-        <v>10103</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>10104</v>
-      </c>
-      <c r="B5" s="6">
-        <v>10104</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="E10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10110</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10110</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10161</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10161</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>10105</v>
-      </c>
-      <c r="B6" s="6">
-        <v>10105</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="H12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>10106</v>
-      </c>
-      <c r="B7" s="6">
-        <v>10106</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>10107</v>
-      </c>
-      <c r="B8" s="6">
-        <v>10107</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>10108</v>
-      </c>
-      <c r="B9" s="6">
-        <v>10108</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>10109</v>
-      </c>
-      <c r="B10" s="6">
-        <v>10109</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>10110</v>
-      </c>
-      <c r="B11" s="6">
-        <v>10110</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>10161</v>
-      </c>
-      <c r="B12" s="6">
-        <v>10161</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
@@ -2246,26 +2481,28 @@
         <v>10201</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
+        <v>118</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
@@ -2279,26 +2516,28 @@
         <v>10202</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
@@ -2312,26 +2551,28 @@
         <v>10203</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
+        <v>118</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="K15" t="s">
         <v>12</v>
@@ -2345,26 +2586,28 @@
         <v>10204</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
@@ -2378,26 +2621,28 @@
         <v>10205</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="K17" t="s">
         <v>12</v>
@@ -2411,26 +2656,28 @@
         <v>10206</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="K18" t="s">
         <v>12</v>
@@ -2444,27 +2691,31 @@
         <v>10207</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>10208</v>
       </c>
@@ -2472,22 +2723,28 @@
         <v>10208</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
+        <v>118</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2498,22 +2755,28 @@
         <v>10209</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
@@ -2524,26 +2787,28 @@
         <v>10210</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -2554,26 +2819,28 @@
         <v>10301</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H23" t="s">
         <v>17</v>
       </c>
-      <c r="J23">
-        <v>5</v>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="K23" t="s">
         <v>15</v>
@@ -2587,26 +2854,28 @@
         <v>10302</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" t="s">
         <v>17</v>
       </c>
-      <c r="J24">
-        <v>5</v>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="K24" t="s">
         <v>15</v>
@@ -2620,26 +2889,28 @@
         <v>10303</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
         <v>17</v>
       </c>
-      <c r="J25">
-        <v>5</v>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="K25" t="s">
         <v>15</v>
@@ -2653,26 +2924,28 @@
         <v>10304</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" t="s">
         <v>17</v>
       </c>
-      <c r="J26">
-        <v>5</v>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="K26" t="s">
         <v>15</v>
@@ -2686,26 +2959,28 @@
         <v>10305</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" t="s">
         <v>17</v>
       </c>
-      <c r="J27">
-        <v>5</v>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="K27" t="s">
         <v>15</v>
@@ -2719,26 +2994,28 @@
         <v>10306</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" t="s">
         <v>17</v>
       </c>
-      <c r="J28">
-        <v>5</v>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="K28" t="s">
         <v>15</v>
@@ -2752,25 +3029,28 @@
         <v>10307</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" t="s">
         <v>17</v>
       </c>
-      <c r="J29">
-        <v>5</v>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2781,25 +3061,31 @@
         <v>10308</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H30" t="s">
         <v>17</v>
       </c>
-      <c r="J30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>10309</v>
       </c>
@@ -2807,20 +3093,28 @@
         <v>10309</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="I31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H31" t="s">
         <v>17</v>
       </c>
-      <c r="J31">
-        <v>5</v>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2831,22 +3125,28 @@
         <v>10310</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" t="s">
         <v>17</v>
       </c>
-      <c r="J32">
-        <v>5</v>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -2857,7 +3157,7 @@
         <v>10401</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
@@ -2865,17 +3165,20 @@
       <c r="E33" s="2">
         <v>10</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J33">
-        <v>5</v>
+      <c r="F33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -2886,25 +3189,28 @@
         <v>10402</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J34">
-        <v>5</v>
+        <v>118</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
@@ -2915,25 +3221,28 @@
         <v>10403</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J35">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -2944,7 +3253,7 @@
         <v>10404</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
@@ -2952,20 +3261,23 @@
       <c r="E36" s="2">
         <v>4</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F36" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>10405</v>
       </c>
@@ -2973,25 +3285,28 @@
         <v>10405</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J37">
-        <v>5</v>
+        <v>118</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3002,28 +3317,31 @@
         <v>10406</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>10407</v>
       </c>
@@ -3031,21 +3349,26 @@
         <v>10407</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J39">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3056,25 +3379,28 @@
         <v>10408</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J40">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
@@ -3085,26 +3411,31 @@
         <v>10409</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>10410</v>
       </c>
@@ -3112,23 +3443,28 @@
         <v>10410</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J42">
-        <v>5</v>
+        <v>118</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -3139,25 +3475,28 @@
         <v>10461</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J43">
-        <v>5</v>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -3168,25 +3507,28 @@
         <v>10462</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J44">
-        <v>5</v>
+        <v>126</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -3197,25 +3539,28 @@
         <v>10463</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J45">
-        <v>5</v>
+        <v>127</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -3226,25 +3571,28 @@
         <v>10464</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J46">
-        <v>5</v>
+        <v>128</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3255,25 +3603,28 @@
         <v>10501</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J47">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3284,25 +3635,28 @@
         <v>10502</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J48">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3313,25 +3667,28 @@
         <v>10503</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J49">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3342,25 +3699,28 @@
         <v>10504</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J50">
-        <v>5</v>
+        <v>157</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3371,25 +3731,28 @@
         <v>10505</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J51">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -3400,25 +3763,28 @@
         <v>10506</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J52">
-        <v>5</v>
+        <v>159</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
@@ -3429,25 +3795,28 @@
         <v>10507</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J53">
-        <v>5</v>
+        <v>162</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3458,23 +3827,26 @@
         <v>10508</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J54">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -3485,25 +3857,28 @@
         <v>10509</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J55">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
@@ -3514,25 +3889,28 @@
         <v>10510</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J56">
-        <v>5</v>
+        <v>123</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -3543,25 +3921,28 @@
         <v>10561</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J57">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3572,682 +3953,1116 @@
         <v>10562</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>10601</v>
+        <v>10563</v>
       </c>
       <c r="B59" s="2">
-        <v>10601</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D59" s="2" t="s">
+        <v>10563</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="E59" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>10602</v>
+        <v>10564</v>
       </c>
       <c r="B60" s="2">
-        <v>10602</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D60" s="2" t="s">
+        <v>10564</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="E60" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>10603</v>
+        <v>10565</v>
       </c>
       <c r="B61" s="2">
-        <v>10603</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J61">
-        <v>5</v>
+        <v>10565</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>10604</v>
+        <v>10601</v>
       </c>
       <c r="B62" s="2">
-        <v>10604</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>195</v>
+        <v>10601</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>10605</v>
+        <v>10602</v>
       </c>
       <c r="B63" s="2">
-        <v>10605</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>196</v>
+        <v>10602</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>10606</v>
+        <v>10603</v>
       </c>
       <c r="B64" s="2">
-        <v>10606</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>197</v>
+        <v>10603</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J64">
-        <v>5</v>
+        <v>118</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>10607</v>
+        <v>10604</v>
       </c>
       <c r="B65" s="2">
-        <v>10607</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>198</v>
+        <v>10604</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J65">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>10608</v>
+        <v>10605</v>
       </c>
       <c r="B66" s="2">
-        <v>10608</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>199</v>
+        <v>10605</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J66">
-        <v>5</v>
+        <v>118</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>10609</v>
+        <v>10606</v>
       </c>
       <c r="B67" s="2">
-        <v>10609</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J67">
-        <v>5</v>
+        <v>10606</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>10610</v>
+        <v>10607</v>
       </c>
       <c r="B68" s="2">
-        <v>10610</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10607</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>10701</v>
+        <v>10608</v>
       </c>
       <c r="B69" s="2">
-        <v>10701</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>202</v>
+        <v>10608</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J69">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>10702</v>
+        <v>10609</v>
       </c>
       <c r="B70" s="2">
-        <v>10702</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>203</v>
+        <v>10609</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>10703</v>
+        <v>10610</v>
       </c>
       <c r="B71" s="2">
-        <v>10703</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E71" s="2">
-        <v>2</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J71">
-        <v>5</v>
+        <v>10610</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>10704</v>
+        <v>10701</v>
       </c>
       <c r="B72" s="2">
-        <v>10704</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>205</v>
+        <v>10701</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J72">
-        <v>5</v>
+        <v>118</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>10705</v>
+        <v>10702</v>
       </c>
       <c r="B73" s="2">
-        <v>10705</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>206</v>
+        <v>10702</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J73">
-        <v>5</v>
+        <v>118</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>10706</v>
+        <v>10703</v>
       </c>
       <c r="B74" s="2">
-        <v>10706</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J74">
-        <v>5</v>
+        <v>10703</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="2">
+        <v>2</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>10707</v>
+        <v>10704</v>
       </c>
       <c r="B75" s="2">
-        <v>10707</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>10704</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E75" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G75" s="11"/>
-      <c r="I75" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J75">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>10708</v>
+        <v>10705</v>
       </c>
       <c r="B76" s="2">
-        <v>10708</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J76">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10705</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>10709</v>
+        <v>10706</v>
       </c>
       <c r="B77" s="2">
-        <v>10709</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>209</v>
+        <v>10706</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>10710</v>
+        <v>10707</v>
       </c>
       <c r="B78" s="2">
-        <v>10710</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>210</v>
+        <v>10707</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="J78">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>10801</v>
+        <v>10708</v>
       </c>
       <c r="B79" s="2">
-        <v>10801</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J79">
-        <v>5</v>
+        <v>10708</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>10802</v>
+        <v>10709</v>
       </c>
       <c r="B80" s="2">
-        <v>10802</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J80">
-        <v>5</v>
+        <v>10709</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>10803</v>
+        <v>10710</v>
       </c>
       <c r="B81" s="2">
-        <v>10803</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E81" s="2">
-        <v>2</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J81">
-        <v>5</v>
+        <v>10710</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>10804</v>
+        <v>10801</v>
       </c>
       <c r="B82" s="2">
-        <v>10804</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="G82" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J82">
-        <v>5</v>
+        <v>10801</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>10805</v>
+        <v>10802</v>
       </c>
       <c r="B83" s="2">
-        <v>10805</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J83">
-        <v>5</v>
+        <v>10802</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>10806</v>
+        <v>10803</v>
       </c>
       <c r="B84" s="2">
-        <v>10806</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J84">
-        <v>5</v>
+        <v>10803</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>10807</v>
+        <v>10804</v>
       </c>
       <c r="B85" s="2">
-        <v>10807</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J85">
-        <v>5</v>
+        <v>10804</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>10808</v>
+        <v>10805</v>
       </c>
       <c r="B86" s="2">
-        <v>10808</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J86">
-        <v>5</v>
+        <v>10805</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
+        <v>10806</v>
+      </c>
+      <c r="B87" s="2">
+        <v>10806</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>10807</v>
+      </c>
+      <c r="B88" s="2">
+        <v>10807</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>10808</v>
+      </c>
+      <c r="B89" s="2">
+        <v>10808</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
         <v>10809</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B90" s="2">
         <v>10809</v>
       </c>
-      <c r="I87" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J87">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="C90" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
         <v>10810</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B91" s="2">
         <v>10810</v>
       </c>
-      <c r="I88" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J88">
-        <v>5</v>
+      <c r="C91" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>10861</v>
+      </c>
+      <c r="B92" s="2">
+        <v>10861</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/DataTableXl/DT_CardsUI.xlsx
+++ b/DataTableXl/DT_CardsUI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTableXl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29C8392-4BA1-4F4D-B0C9-A672179790AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B27F75-A34F-4D70-B9E3-F2AB945A5228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42B81260-985A-4B74-A2BA-B7DF455C8F63}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42B81260-985A-4B74-A2BA-B7DF455C8F63}"/>
   </bookViews>
   <sheets>
     <sheet name="DT_CardsUI" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="319">
   <si>
     <t>---</t>
   </si>
@@ -58,16 +58,10 @@
     <t>draw</t>
   </si>
   <si>
-    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Cards/Clear/Card_Clear.Card_Clear'</t>
-  </si>
-  <si>
     <t>mission</t>
   </si>
   <si>
     <t>break</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>DetailDescription</t>
@@ -140,10 +134,6 @@
   </si>
   <si>
     <t>"所以，体检为什么产费啊！"</t>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Cards/Oo/Card_10101.Card_10101'</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Icon/Icon_10101.Icon_10101'</t>
@@ -1022,6 +1012,34 @@
   </si>
   <si>
     <t>激活后，使同方队列中的所有敌人卡牌失效</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Cards/Card_10101.Card_10101'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Cards/Card_10205.Card_10205'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Icon/Icon_10205.Icon_10205'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Cards/Card_10302.Card_10302'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Icon/Icon_10302.Icon_10302'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Cards/Card_10401.Card_10401'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Icon/Icon_10401.Icon_10401'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2033,7 +2051,7 @@
   <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K8"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2064,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -2073,16 +2091,16 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2093,34 +2111,34 @@
         <v>10101</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -2131,34 +2149,34 @@
         <v>10102</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -2169,7 +2187,7 @@
         <v>10103</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -2178,25 +2196,25 @@
         <v>3</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -2207,34 +2225,34 @@
         <v>10104</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2245,34 +2263,34 @@
         <v>10105</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
@@ -2283,34 +2301,34 @@
         <v>10106</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2321,28 +2339,34 @@
         <v>10107</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+      <c r="K8" t="s">
+        <v>312</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -2353,28 +2377,34 @@
         <v>10108</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+      <c r="K9" t="s">
+        <v>312</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -2385,28 +2415,34 @@
         <v>10109</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+      <c r="K10" t="s">
+        <v>312</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2417,28 +2453,34 @@
         <v>10110</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+      <c r="K11" t="s">
+        <v>312</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -2449,28 +2491,34 @@
         <v>10161</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
+      </c>
+      <c r="K12" t="s">
+        <v>312</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
@@ -2481,31 +2529,34 @@
         <v>10201</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K13" t="s">
-        <v>12</v>
+        <v>313</v>
+      </c>
+      <c r="L13" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
@@ -2516,31 +2567,34 @@
         <v>10202</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>313</v>
+      </c>
+      <c r="L14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -2551,31 +2605,34 @@
         <v>10203</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>313</v>
+      </c>
+      <c r="L15" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
@@ -2586,34 +2643,37 @@
         <v>10204</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="L16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10205</v>
       </c>
@@ -2621,34 +2681,37 @@
         <v>10205</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="L17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>10206</v>
       </c>
@@ -2656,34 +2719,37 @@
         <v>10206</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="L18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>10207</v>
       </c>
@@ -2691,31 +2757,37 @@
         <v>10207</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="K19" t="s">
+        <v>313</v>
+      </c>
+      <c r="L19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>10208</v>
       </c>
@@ -2723,31 +2795,37 @@
         <v>10208</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="K20" t="s">
+        <v>313</v>
+      </c>
+      <c r="L20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>10209</v>
       </c>
@@ -2755,31 +2833,37 @@
         <v>10209</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="K21" t="s">
+        <v>313</v>
+      </c>
+      <c r="L21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>10210</v>
       </c>
@@ -2787,31 +2871,37 @@
         <v>10210</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="K22" t="s">
+        <v>313</v>
+      </c>
+      <c r="L22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>10301</v>
       </c>
@@ -2819,34 +2909,37 @@
         <v>10301</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="L23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>10302</v>
       </c>
@@ -2854,34 +2947,37 @@
         <v>10302</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="L24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>10303</v>
       </c>
@@ -2889,34 +2985,37 @@
         <v>10303</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="L25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>10304</v>
       </c>
@@ -2924,34 +3023,37 @@
         <v>10304</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="L26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>10305</v>
       </c>
@@ -2959,34 +3061,37 @@
         <v>10305</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="L27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>10306</v>
       </c>
@@ -2994,34 +3099,37 @@
         <v>10306</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="L28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>10307</v>
       </c>
@@ -3029,31 +3137,37 @@
         <v>10307</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="K29" t="s">
+        <v>315</v>
+      </c>
+      <c r="L29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>10308</v>
       </c>
@@ -3061,31 +3175,37 @@
         <v>10308</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="K30" t="s">
+        <v>315</v>
+      </c>
+      <c r="L30" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>10309</v>
       </c>
@@ -3093,31 +3213,37 @@
         <v>10309</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="K31" t="s">
+        <v>315</v>
+      </c>
+      <c r="L31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>10310</v>
       </c>
@@ -3125,31 +3251,37 @@
         <v>10310</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="K32" t="s">
+        <v>315</v>
+      </c>
+      <c r="L32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>10401</v>
       </c>
@@ -3157,7 +3289,7 @@
         <v>10401</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>9</v>
@@ -3166,22 +3298,28 @@
         <v>10</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="K33" t="s">
+        <v>317</v>
+      </c>
+      <c r="L33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>10402</v>
       </c>
@@ -3189,31 +3327,37 @@
         <v>10402</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="K34" t="s">
+        <v>317</v>
+      </c>
+      <c r="L34" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>10403</v>
       </c>
@@ -3221,31 +3365,37 @@
         <v>10403</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="K35" t="s">
+        <v>317</v>
+      </c>
+      <c r="L35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>10404</v>
       </c>
@@ -3253,7 +3403,7 @@
         <v>10404</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
@@ -3262,22 +3412,28 @@
         <v>4</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="K36" t="s">
+        <v>317</v>
+      </c>
+      <c r="L36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>10405</v>
       </c>
@@ -3285,31 +3441,37 @@
         <v>10405</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="K37" t="s">
+        <v>317</v>
+      </c>
+      <c r="L37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>10406</v>
       </c>
@@ -3317,31 +3479,37 @@
         <v>10406</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="K38" t="s">
+        <v>317</v>
+      </c>
+      <c r="L38" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>10407</v>
       </c>
@@ -3349,29 +3517,35 @@
         <v>10407</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="K39" t="s">
+        <v>317</v>
+      </c>
+      <c r="L39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>10408</v>
       </c>
@@ -3379,31 +3553,37 @@
         <v>10408</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="92.4" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="K40" t="s">
+        <v>317</v>
+      </c>
+      <c r="L40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>10409</v>
       </c>
@@ -3411,31 +3591,37 @@
         <v>10409</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="K41" t="s">
+        <v>317</v>
+      </c>
+      <c r="L41" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>10410</v>
       </c>
@@ -3443,31 +3629,37 @@
         <v>10410</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="K42" t="s">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>10461</v>
       </c>
@@ -3475,31 +3667,37 @@
         <v>10461</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="K43" t="s">
+        <v>317</v>
+      </c>
+      <c r="L43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>10462</v>
       </c>
@@ -3507,31 +3705,37 @@
         <v>10462</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="K44" t="s">
+        <v>317</v>
+      </c>
+      <c r="L44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>10463</v>
       </c>
@@ -3539,31 +3743,37 @@
         <v>10463</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="K45" t="s">
+        <v>317</v>
+      </c>
+      <c r="L45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>10464</v>
       </c>
@@ -3571,31 +3781,37 @@
         <v>10464</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="K46" t="s">
+        <v>317</v>
+      </c>
+      <c r="L46" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>10501</v>
       </c>
@@ -3603,31 +3819,31 @@
         <v>10501</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>10502</v>
       </c>
@@ -3635,28 +3851,28 @@
         <v>10502</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3667,28 +3883,28 @@
         <v>10503</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3699,28 +3915,28 @@
         <v>10504</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3731,28 +3947,28 @@
         <v>10505</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -3763,28 +3979,28 @@
         <v>10506</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
@@ -3795,28 +4011,28 @@
         <v>10507</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3827,26 +4043,26 @@
         <v>10508</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -3857,28 +4073,28 @@
         <v>10509</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
@@ -3889,28 +4105,28 @@
         <v>10510</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -3921,28 +4137,28 @@
         <v>10561</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G57" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3953,28 +4169,28 @@
         <v>10562</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -3985,28 +4201,28 @@
         <v>10563</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -4017,28 +4233,28 @@
         <v>10564</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -4049,28 +4265,28 @@
         <v>10565</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -4081,28 +4297,28 @@
         <v>10601</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
@@ -4113,28 +4329,28 @@
         <v>10602</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -4145,28 +4361,28 @@
         <v>10603</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -4177,28 +4393,28 @@
         <v>10604</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -4209,28 +4425,28 @@
         <v>10605</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -4241,28 +4457,28 @@
         <v>10606</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -4273,28 +4489,28 @@
         <v>10607</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -4305,28 +4521,28 @@
         <v>10608</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -4337,28 +4553,28 @@
         <v>10609</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
@@ -4369,28 +4585,28 @@
         <v>10610</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -4401,28 +4617,28 @@
         <v>10701</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -4433,28 +4649,28 @@
         <v>10702</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -4465,7 +4681,7 @@
         <v>10703</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>9</v>
@@ -4474,19 +4690,19 @@
         <v>2</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -4497,28 +4713,28 @@
         <v>10704</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -4529,28 +4745,28 @@
         <v>10705</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -4561,28 +4777,28 @@
         <v>10706</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
@@ -4593,28 +4809,28 @@
         <v>10707</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4625,28 +4841,28 @@
         <v>10708</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4657,28 +4873,28 @@
         <v>10709</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4689,28 +4905,28 @@
         <v>10710</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4721,28 +4937,28 @@
         <v>10801</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4753,28 +4969,28 @@
         <v>10802</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4785,7 +5001,7 @@
         <v>10803</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>9</v>
@@ -4794,19 +5010,19 @@
         <v>2</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4817,28 +5033,28 @@
         <v>10804</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4849,28 +5065,28 @@
         <v>10805</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4881,28 +5097,28 @@
         <v>10806</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -4913,28 +5129,28 @@
         <v>10807</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4945,28 +5161,28 @@
         <v>10808</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4977,28 +5193,28 @@
         <v>10809</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
@@ -5009,28 +5225,28 @@
         <v>10810</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
@@ -5041,28 +5257,28 @@
         <v>10861</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/DataTableXl/DT_CardsUI.xlsx
+++ b/DataTableXl/DT_CardsUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTableXl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B27F75-A34F-4D70-B9E3-F2AB945A5228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E914F7-40E6-4997-BDEF-DB5873F2B685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42B81260-985A-4B74-A2BA-B7DF455C8F63}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="321">
   <si>
     <t>---</t>
   </si>
@@ -536,9 +536,6 @@
   <si>
     <t>哎，你，借你号是让你看的，你别拿我号冲塔啊！</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>波海</t>
   </si>
   <si>
     <t>玻海</t>
@@ -1039,6 +1036,18 @@
   </si>
   <si>
     <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Icon/Icon_10401.Icon_10401'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Cards/Card_10503.Card_10503'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Icon/Icon_10503.Icon_10503'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2050,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EDB122-41F7-47AE-82FC-E0EB59EC4A9A}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" topLeftCell="G53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2094,7 +2103,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -2132,10 +2141,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L2" t="s">
         <v>36</v>
@@ -2161,7 +2170,7 @@
         <v>44</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>58</v>
@@ -2170,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L3" t="s">
         <v>36</v>
@@ -2208,10 +2217,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L4" t="s">
         <v>36</v>
@@ -2246,10 +2255,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L5" t="s">
         <v>36</v>
@@ -2272,7 +2281,7 @@
         <v>115</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>54</v>
@@ -2284,10 +2293,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L6" t="s">
         <v>36</v>
@@ -2322,10 +2331,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L7" t="s">
         <v>36</v>
@@ -2360,10 +2369,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L8" t="s">
         <v>36</v>
@@ -2389,7 +2398,7 @@
         <v>49</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>58</v>
@@ -2398,10 +2407,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L9" t="s">
         <v>36</v>
@@ -2424,10 +2433,10 @@
         <v>114</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>58</v>
@@ -2436,10 +2445,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L10" t="s">
         <v>36</v>
@@ -2465,7 +2474,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>58</v>
@@ -2474,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L11" t="s">
         <v>36</v>
@@ -2512,10 +2521,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L12" t="s">
         <v>36</v>
@@ -2541,7 +2550,7 @@
         <v>66</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>74</v>
@@ -2550,13 +2559,13 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K13" t="s">
+        <v>312</v>
+      </c>
+      <c r="L13" t="s">
         <v>313</v>
-      </c>
-      <c r="L13" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
@@ -2579,7 +2588,7 @@
         <v>67</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>74</v>
@@ -2588,13 +2597,13 @@
         <v>1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K14" t="s">
+        <v>312</v>
+      </c>
+      <c r="L14" t="s">
         <v>313</v>
-      </c>
-      <c r="L14" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -2617,7 +2626,7 @@
         <v>68</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>74</v>
@@ -2626,13 +2635,13 @@
         <v>1</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K15" t="s">
+        <v>312</v>
+      </c>
+      <c r="L15" t="s">
         <v>313</v>
-      </c>
-      <c r="L15" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
@@ -2664,13 +2673,13 @@
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K16" t="s">
+        <v>312</v>
+      </c>
+      <c r="L16" t="s">
         <v>313</v>
-      </c>
-      <c r="L16" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
@@ -2702,13 +2711,13 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K17" t="s">
+        <v>312</v>
+      </c>
+      <c r="L17" t="s">
         <v>313</v>
-      </c>
-      <c r="L17" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -2728,10 +2737,10 @@
         <v>114</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>74</v>
@@ -2740,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K18" t="s">
+        <v>312</v>
+      </c>
+      <c r="L18" t="s">
         <v>313</v>
-      </c>
-      <c r="L18" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2766,10 +2775,10 @@
         <v>114</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>74</v>
@@ -2778,13 +2787,13 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K19" t="s">
+        <v>312</v>
+      </c>
+      <c r="L19" t="s">
         <v>313</v>
-      </c>
-      <c r="L19" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -2804,10 +2813,10 @@
         <v>115</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>74</v>
@@ -2816,13 +2825,13 @@
         <v>1</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K20" t="s">
+        <v>312</v>
+      </c>
+      <c r="L20" t="s">
         <v>313</v>
-      </c>
-      <c r="L20" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2842,7 +2851,7 @@
         <v>114</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>73</v>
@@ -2854,13 +2863,13 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K21" t="s">
+        <v>312</v>
+      </c>
+      <c r="L21" t="s">
         <v>313</v>
-      </c>
-      <c r="L21" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
@@ -2880,10 +2889,10 @@
         <v>114</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>74</v>
@@ -2892,13 +2901,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K22" t="s">
+        <v>312</v>
+      </c>
+      <c r="L22" t="s">
         <v>313</v>
-      </c>
-      <c r="L22" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -2921,7 +2930,7 @@
         <v>82</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -2930,13 +2939,13 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K23" t="s">
+        <v>314</v>
+      </c>
+      <c r="L23" t="s">
         <v>315</v>
-      </c>
-      <c r="L23" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -2968,13 +2977,13 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K24" t="s">
+        <v>314</v>
+      </c>
+      <c r="L24" t="s">
         <v>315</v>
-      </c>
-      <c r="L24" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3006,13 +3015,13 @@
         <v>1</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K25" t="s">
+        <v>314</v>
+      </c>
+      <c r="L25" t="s">
         <v>315</v>
-      </c>
-      <c r="L25" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
@@ -3044,13 +3053,13 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K26" t="s">
+        <v>314</v>
+      </c>
+      <c r="L26" t="s">
         <v>315</v>
-      </c>
-      <c r="L26" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3082,13 +3091,13 @@
         <v>1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K27" t="s">
+        <v>314</v>
+      </c>
+      <c r="L27" t="s">
         <v>315</v>
-      </c>
-      <c r="L27" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -3111,7 +3120,7 @@
         <v>34</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -3120,13 +3129,13 @@
         <v>1</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K28" t="s">
+        <v>314</v>
+      </c>
+      <c r="L28" t="s">
         <v>315</v>
-      </c>
-      <c r="L28" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -3158,13 +3167,13 @@
         <v>1</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K29" t="s">
+        <v>314</v>
+      </c>
+      <c r="L29" t="s">
         <v>315</v>
-      </c>
-      <c r="L29" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3184,10 +3193,10 @@
         <v>115</v>
       </c>
       <c r="F30" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -3196,13 +3205,13 @@
         <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K30" t="s">
+        <v>314</v>
+      </c>
+      <c r="L30" t="s">
         <v>315</v>
-      </c>
-      <c r="L30" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -3222,10 +3231,10 @@
         <v>114</v>
       </c>
       <c r="F31" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -3234,13 +3243,13 @@
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K31" t="s">
+        <v>314</v>
+      </c>
+      <c r="L31" t="s">
         <v>315</v>
-      </c>
-      <c r="L31" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3260,10 +3269,10 @@
         <v>114</v>
       </c>
       <c r="F32" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -3272,13 +3281,13 @@
         <v>1</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K32" t="s">
+        <v>314</v>
+      </c>
+      <c r="L32" t="s">
         <v>315</v>
-      </c>
-      <c r="L32" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -3310,13 +3319,13 @@
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K33" t="s">
+        <v>316</v>
+      </c>
+      <c r="L33" t="s">
         <v>317</v>
-      </c>
-      <c r="L33" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -3339,7 +3348,7 @@
         <v>102</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>126</v>
@@ -3348,13 +3357,13 @@
         <v>1</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K34" t="s">
+        <v>316</v>
+      </c>
+      <c r="L34" t="s">
         <v>317</v>
-      </c>
-      <c r="L34" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
@@ -3386,13 +3395,13 @@
         <v>1</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K35" t="s">
+        <v>316</v>
+      </c>
+      <c r="L35" t="s">
         <v>317</v>
-      </c>
-      <c r="L35" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -3412,10 +3421,10 @@
         <v>4</v>
       </c>
       <c r="F36" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>126</v>
@@ -3424,13 +3433,13 @@
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K36" t="s">
+        <v>316</v>
+      </c>
+      <c r="L36" t="s">
         <v>317</v>
-      </c>
-      <c r="L36" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -3453,7 +3462,7 @@
         <v>104</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>126</v>
@@ -3462,13 +3471,13 @@
         <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K37" t="s">
+        <v>316</v>
+      </c>
+      <c r="L37" t="s">
         <v>317</v>
-      </c>
-      <c r="L37" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3491,7 +3500,7 @@
         <v>105</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>126</v>
@@ -3500,13 +3509,13 @@
         <v>1</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K38" t="s">
+        <v>316</v>
+      </c>
+      <c r="L38" t="s">
         <v>317</v>
-      </c>
-      <c r="L38" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -3527,7 +3536,7 @@
         <v>106</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>126</v>
@@ -3536,13 +3545,13 @@
         <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K39" t="s">
+        <v>316</v>
+      </c>
+      <c r="L39" t="s">
         <v>317</v>
-      </c>
-      <c r="L39" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3565,7 +3574,7 @@
         <v>107</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>126</v>
@@ -3574,13 +3583,13 @@
         <v>1</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s">
+        <v>316</v>
+      </c>
+      <c r="L40" t="s">
         <v>317</v>
-      </c>
-      <c r="L40" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="92.4" x14ac:dyDescent="0.25">
@@ -3600,10 +3609,10 @@
         <v>114</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>126</v>
@@ -3612,13 +3621,13 @@
         <v>1</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K41" t="s">
+        <v>316</v>
+      </c>
+      <c r="L41" t="s">
         <v>317</v>
-      </c>
-      <c r="L41" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -3641,7 +3650,7 @@
         <v>108</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>126</v>
@@ -3650,13 +3659,13 @@
         <v>1</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K42" t="s">
+        <v>316</v>
+      </c>
+      <c r="L42" t="s">
         <v>317</v>
-      </c>
-      <c r="L42" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3688,13 +3697,13 @@
         <v>1</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K43" t="s">
+        <v>316</v>
+      </c>
+      <c r="L43" t="s">
         <v>317</v>
-      </c>
-      <c r="L43" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -3726,13 +3735,13 @@
         <v>1</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K44" t="s">
+        <v>316</v>
+      </c>
+      <c r="L44" t="s">
         <v>317</v>
-      </c>
-      <c r="L44" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -3764,13 +3773,13 @@
         <v>1</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K45" t="s">
+        <v>316</v>
+      </c>
+      <c r="L45" t="s">
         <v>317</v>
-      </c>
-      <c r="L45" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -3802,13 +3811,13 @@
         <v>1</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K46" t="s">
+        <v>316</v>
+      </c>
+      <c r="L46" t="s">
         <v>317</v>
-      </c>
-      <c r="L46" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3840,7 +3849,13 @@
         <v>1</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
+      </c>
+      <c r="K47" t="s">
+        <v>318</v>
+      </c>
+      <c r="L47" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3866,16 +3881,22 @@
         <v>152</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="K48" t="s">
+        <v>318</v>
+      </c>
+      <c r="L48" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>10503</v>
       </c>
@@ -3898,16 +3919,22 @@
         <v>153</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="K49" t="s">
+        <v>318</v>
+      </c>
+      <c r="L49" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>10504</v>
       </c>
@@ -3930,16 +3957,22 @@
         <v>154</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="K50" t="s">
+        <v>318</v>
+      </c>
+      <c r="L50" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>10505</v>
       </c>
@@ -3962,16 +3995,22 @@
         <v>155</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="K51" t="s">
+        <v>318</v>
+      </c>
+      <c r="L51" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>10506</v>
       </c>
@@ -3994,16 +4033,22 @@
         <v>156</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="K52" t="s">
+        <v>318</v>
+      </c>
+      <c r="L52" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>10507</v>
       </c>
@@ -4026,16 +4071,22 @@
         <v>159</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="K53" t="s">
+        <v>318</v>
+      </c>
+      <c r="L53" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>10508</v>
       </c>
@@ -4056,16 +4107,22 @@
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="K54" t="s">
+        <v>318</v>
+      </c>
+      <c r="L54" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>10509</v>
       </c>
@@ -4088,16 +4145,22 @@
         <v>157</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="K55" t="s">
+        <v>318</v>
+      </c>
+      <c r="L55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>10510</v>
       </c>
@@ -4120,16 +4183,22 @@
         <v>120</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="K56" t="s">
+        <v>318</v>
+      </c>
+      <c r="L56" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>10561</v>
       </c>
@@ -4152,16 +4221,22 @@
         <v>158</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="K57" t="s">
+        <v>318</v>
+      </c>
+      <c r="L57" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>10562</v>
       </c>
@@ -4181,19 +4256,25 @@
         <v>150</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="K58" t="s">
+        <v>318</v>
+      </c>
+      <c r="L58" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>10563</v>
       </c>
@@ -4201,7 +4282,7 @@
         <v>10563</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>8</v>
@@ -4210,22 +4291,28 @@
         <v>114</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="K59" t="s">
+        <v>318</v>
+      </c>
+      <c r="L59" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>10564</v>
       </c>
@@ -4233,7 +4320,7 @@
         <v>10564</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>10</v>
@@ -4242,22 +4329,28 @@
         <v>114</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="K60" t="s">
+        <v>318</v>
+      </c>
+      <c r="L60" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>10565</v>
       </c>
@@ -4265,7 +4358,7 @@
         <v>10565</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>8</v>
@@ -4274,22 +4367,28 @@
         <v>114</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="K61" t="s">
+        <v>318</v>
+      </c>
+      <c r="L61" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>10601</v>
       </c>
@@ -4297,7 +4396,7 @@
         <v>10601</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>8</v>
@@ -4306,22 +4405,28 @@
         <v>115</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="K62" t="s">
+        <v>320</v>
+      </c>
+      <c r="L62" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>10602</v>
       </c>
@@ -4329,7 +4434,7 @@
         <v>10602</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>10</v>
@@ -4338,22 +4443,28 @@
         <v>114</v>
       </c>
       <c r="F63" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="H63" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="K63" t="s">
+        <v>320</v>
+      </c>
+      <c r="L63" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>10603</v>
       </c>
@@ -4361,7 +4472,7 @@
         <v>10603</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>22</v>
@@ -4370,22 +4481,28 @@
         <v>115</v>
       </c>
       <c r="F64" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="H64" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="K64" t="s">
+        <v>320</v>
+      </c>
+      <c r="L64" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>10604</v>
       </c>
@@ -4393,7 +4510,7 @@
         <v>10604</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>22</v>
@@ -4402,22 +4519,28 @@
         <v>114</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="K65" t="s">
+        <v>320</v>
+      </c>
+      <c r="L65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>10605</v>
       </c>
@@ -4425,31 +4548,37 @@
         <v>10605</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="K66" t="s">
+        <v>320</v>
+      </c>
+      <c r="L66" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>10606</v>
       </c>
@@ -4457,7 +4586,7 @@
         <v>10606</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>10</v>
@@ -4466,22 +4595,28 @@
         <v>114</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="K67" t="s">
+        <v>320</v>
+      </c>
+      <c r="L67" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>10607</v>
       </c>
@@ -4489,7 +4624,7 @@
         <v>10607</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>8</v>
@@ -4498,22 +4633,28 @@
         <v>115</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="K68" t="s">
+        <v>320</v>
+      </c>
+      <c r="L68" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>10608</v>
       </c>
@@ -4521,7 +4662,7 @@
         <v>10608</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>8</v>
@@ -4530,22 +4671,28 @@
         <v>114</v>
       </c>
       <c r="F69" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>251</v>
-      </c>
       <c r="H69" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="K69" t="s">
+        <v>320</v>
+      </c>
+      <c r="L69" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>10609</v>
       </c>
@@ -4553,7 +4700,7 @@
         <v>10609</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>12</v>
@@ -4562,22 +4709,28 @@
         <v>114</v>
       </c>
       <c r="F70" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="G70" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="H70" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="K70" t="s">
+        <v>320</v>
+      </c>
+      <c r="L70" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>10610</v>
       </c>
@@ -4585,7 +4738,7 @@
         <v>10610</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>10</v>
@@ -4594,22 +4747,28 @@
         <v>114</v>
       </c>
       <c r="F71" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="G71" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="H71" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="K71" t="s">
+        <v>320</v>
+      </c>
+      <c r="L71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>10701</v>
       </c>
@@ -4617,7 +4776,7 @@
         <v>10701</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>8</v>
@@ -4626,22 +4785,28 @@
         <v>115</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="K72" t="s">
+        <v>320</v>
+      </c>
+      <c r="L72" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>10702</v>
       </c>
@@ -4649,7 +4814,7 @@
         <v>10702</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>27</v>
@@ -4658,22 +4823,28 @@
         <v>115</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="K73" t="s">
+        <v>320</v>
+      </c>
+      <c r="L73" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>10703</v>
       </c>
@@ -4681,7 +4852,7 @@
         <v>10703</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>9</v>
@@ -4690,22 +4861,28 @@
         <v>2</v>
       </c>
       <c r="F74" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="H74" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="K74" t="s">
+        <v>320</v>
+      </c>
+      <c r="L74" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>10704</v>
       </c>
@@ -4713,7 +4890,7 @@
         <v>10704</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>12</v>
@@ -4722,22 +4899,28 @@
         <v>114</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="K75" t="s">
+        <v>320</v>
+      </c>
+      <c r="L75" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>10705</v>
       </c>
@@ -4745,7 +4928,7 @@
         <v>10705</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>8</v>
@@ -4754,22 +4937,28 @@
         <v>115</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="K76" t="s">
+        <v>320</v>
+      </c>
+      <c r="L76" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>10706</v>
       </c>
@@ -4777,7 +4966,7 @@
         <v>10706</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>12</v>
@@ -4786,22 +4975,28 @@
         <v>114</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="K77" t="s">
+        <v>320</v>
+      </c>
+      <c r="L77" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>10707</v>
       </c>
@@ -4809,7 +5004,7 @@
         <v>10707</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>10</v>
@@ -4818,22 +5013,28 @@
         <v>114</v>
       </c>
       <c r="F78" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="H78" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="K78" t="s">
+        <v>320</v>
+      </c>
+      <c r="L78" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>10708</v>
       </c>
@@ -4841,7 +5042,7 @@
         <v>10708</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>12</v>
@@ -4850,22 +5051,28 @@
         <v>114</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="K79" t="s">
+        <v>320</v>
+      </c>
+      <c r="L79" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>10709</v>
       </c>
@@ -4873,7 +5080,7 @@
         <v>10709</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>12</v>
@@ -4882,22 +5089,28 @@
         <v>114</v>
       </c>
       <c r="F80" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="H80" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="K80" t="s">
+        <v>320</v>
+      </c>
+      <c r="L80" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>10710</v>
       </c>
@@ -4905,7 +5118,7 @@
         <v>10710</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>12</v>
@@ -4914,22 +5127,28 @@
         <v>114</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="K81" t="s">
+        <v>320</v>
+      </c>
+      <c r="L81" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>10801</v>
       </c>
@@ -4937,7 +5156,7 @@
         <v>10801</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>8</v>
@@ -4946,22 +5165,28 @@
         <v>115</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="K82" t="s">
+        <v>320</v>
+      </c>
+      <c r="L82" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>10802</v>
       </c>
@@ -4969,7 +5194,7 @@
         <v>10802</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>12</v>
@@ -4978,22 +5203,28 @@
         <v>114</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="K83" t="s">
+        <v>320</v>
+      </c>
+      <c r="L83" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>10803</v>
       </c>
@@ -5001,7 +5232,7 @@
         <v>10803</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>9</v>
@@ -5010,22 +5241,28 @@
         <v>2</v>
       </c>
       <c r="F84" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="G84" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="H84" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="K84" t="s">
+        <v>320</v>
+      </c>
+      <c r="L84" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>10804</v>
       </c>
@@ -5033,7 +5270,7 @@
         <v>10804</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>12</v>
@@ -5042,22 +5279,28 @@
         <v>115</v>
       </c>
       <c r="F85" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="G85" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="H85" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="K85" t="s">
+        <v>320</v>
+      </c>
+      <c r="L85" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>10805</v>
       </c>
@@ -5065,7 +5308,7 @@
         <v>10805</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>8</v>
@@ -5074,22 +5317,28 @@
         <v>114</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="K86" t="s">
+        <v>320</v>
+      </c>
+      <c r="L86" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>10806</v>
       </c>
@@ -5097,7 +5346,7 @@
         <v>10806</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>12</v>
@@ -5106,22 +5355,28 @@
         <v>114</v>
       </c>
       <c r="F87" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G87" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="H87" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="K87" t="s">
+        <v>320</v>
+      </c>
+      <c r="L87" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>10807</v>
       </c>
@@ -5129,7 +5384,7 @@
         <v>10807</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>12</v>
@@ -5138,22 +5393,28 @@
         <v>115</v>
       </c>
       <c r="F88" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="G88" s="6" t="s">
-        <v>290</v>
-      </c>
       <c r="H88" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="K88" t="s">
+        <v>320</v>
+      </c>
+      <c r="L88" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>10808</v>
       </c>
@@ -5161,7 +5422,7 @@
         <v>10808</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>12</v>
@@ -5170,22 +5431,28 @@
         <v>115</v>
       </c>
       <c r="F89" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G89" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="H89" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="K89" t="s">
+        <v>320</v>
+      </c>
+      <c r="L89" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>10809</v>
       </c>
@@ -5193,7 +5460,7 @@
         <v>10809</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>10</v>
@@ -5202,22 +5469,28 @@
         <v>115</v>
       </c>
       <c r="F90" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="G90" s="6" t="s">
-        <v>294</v>
-      </c>
       <c r="H90" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="K90" t="s">
+        <v>320</v>
+      </c>
+      <c r="L90" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>10810</v>
       </c>
@@ -5225,7 +5498,7 @@
         <v>10810</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>10</v>
@@ -5234,22 +5507,28 @@
         <v>114</v>
       </c>
       <c r="F91" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="G91" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="H91" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="K91" t="s">
+        <v>320</v>
+      </c>
+      <c r="L91" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>10861</v>
       </c>
@@ -5257,7 +5536,7 @@
         <v>10861</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>8</v>
@@ -5266,19 +5545,25 @@
         <v>114</v>
       </c>
       <c r="F92" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="H92" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
+      </c>
+      <c r="K92" t="s">
+        <v>320</v>
+      </c>
+      <c r="L92" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/DataTableXl/DT_CardsUI.xlsx
+++ b/DataTableXl/DT_CardsUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTableXl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E914F7-40E6-4997-BDEF-DB5873F2B685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DF85D6-008F-4E07-BA44-B97E341543EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42B81260-985A-4B74-A2BA-B7DF455C8F63}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="326">
   <si>
     <t>---</t>
   </si>
@@ -1047,7 +1047,27 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>None</t>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Cards/Card_10601.Card_10601'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Icon/Icon_10601.Icon_10601'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Cards/Card_10703.Card_10703'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Icon/Icon_10703.Icon_10703'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Cards/Card_10801.Card_10801'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Assent/Photo/Icon/Icon_10801.Icon_10801'</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2059,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EDB122-41F7-47AE-82FC-E0EB59EC4A9A}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="G70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2071,7 +2091,7 @@
     <col min="6" max="6" width="80.6640625" customWidth="1"/>
     <col min="7" max="7" width="36.21875" customWidth="1"/>
     <col min="11" max="11" width="80" customWidth="1"/>
-    <col min="12" max="12" width="38.33203125" customWidth="1"/>
+    <col min="12" max="12" width="85.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4423,7 +4443,7 @@
         <v>320</v>
       </c>
       <c r="L62" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
@@ -4461,7 +4481,7 @@
         <v>320</v>
       </c>
       <c r="L63" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -4499,7 +4519,7 @@
         <v>320</v>
       </c>
       <c r="L64" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -4537,7 +4557,7 @@
         <v>320</v>
       </c>
       <c r="L65" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -4575,7 +4595,7 @@
         <v>320</v>
       </c>
       <c r="L66" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -4613,7 +4633,7 @@
         <v>320</v>
       </c>
       <c r="L67" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -4651,7 +4671,7 @@
         <v>320</v>
       </c>
       <c r="L68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -4689,7 +4709,7 @@
         <v>320</v>
       </c>
       <c r="L69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -4727,7 +4747,7 @@
         <v>320</v>
       </c>
       <c r="L70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
@@ -4765,7 +4785,7 @@
         <v>320</v>
       </c>
       <c r="L71" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -4800,10 +4820,10 @@
         <v>305</v>
       </c>
       <c r="K72" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L72" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -4838,10 +4858,10 @@
         <v>305</v>
       </c>
       <c r="K73" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L73" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -4876,10 +4896,10 @@
         <v>305</v>
       </c>
       <c r="K74" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L74" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -4914,10 +4934,10 @@
         <v>305</v>
       </c>
       <c r="K75" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L75" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -4952,10 +4972,10 @@
         <v>305</v>
       </c>
       <c r="K76" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L76" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -4990,10 +5010,10 @@
         <v>305</v>
       </c>
       <c r="K77" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L77" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
@@ -5028,10 +5048,10 @@
         <v>305</v>
       </c>
       <c r="K78" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L78" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -5066,10 +5086,10 @@
         <v>305</v>
       </c>
       <c r="K79" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L79" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -5104,10 +5124,10 @@
         <v>305</v>
       </c>
       <c r="K80" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L80" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -5142,10 +5162,10 @@
         <v>305</v>
       </c>
       <c r="K81" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L81" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -5180,10 +5200,10 @@
         <v>306</v>
       </c>
       <c r="K82" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L82" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -5218,10 +5238,10 @@
         <v>306</v>
       </c>
       <c r="K83" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L83" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -5256,10 +5276,10 @@
         <v>306</v>
       </c>
       <c r="K84" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L84" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5294,10 +5314,10 @@
         <v>306</v>
       </c>
       <c r="K85" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L85" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5332,10 +5352,10 @@
         <v>306</v>
       </c>
       <c r="K86" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L86" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -5370,10 +5390,10 @@
         <v>306</v>
       </c>
       <c r="K87" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L87" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -5408,10 +5428,10 @@
         <v>306</v>
       </c>
       <c r="K88" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L88" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -5446,10 +5466,10 @@
         <v>306</v>
       </c>
       <c r="K89" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L89" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -5484,10 +5504,10 @@
         <v>306</v>
       </c>
       <c r="K90" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L90" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
@@ -5522,10 +5542,10 @@
         <v>306</v>
       </c>
       <c r="K91" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L91" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
@@ -5560,10 +5580,10 @@
         <v>306</v>
       </c>
       <c r="K92" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L92" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/DataTableXl/DT_CardsUI.xlsx
+++ b/DataTableXl/DT_CardsUI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTableXl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C86518B5-8588-40B5-A07C-D48414DFDD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3B0D94-3F8D-45AD-B9AA-6212C9E2E6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8ADF855A-16B7-4712-B6FF-0FC5D8078CD9}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="26">
   <si>
     <t>---</t>
   </si>
@@ -28,15 +28,6 @@
     <t>Card_row</t>
   </si>
   <si>
-    <t>Cardname</t>
-  </si>
-  <si>
-    <t>DetailDescription</t>
-  </si>
-  <si>
-    <t>Carddescription</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
@@ -58,112 +49,62 @@
     <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Card/Character/Oo/Card_Oo_PhotoTop_100.Card_Oo_PhotoTop_100'</t>
   </si>
   <si>
-    <t>短杆箭</t>
-  </si>
-  <si>
-    <t>地脉箭</t>
-  </si>
-  <si>
-    <t>碎片化摸鱼</t>
-  </si>
-  <si>
-    <t>巡回</t>
-  </si>
-  <si>
-    <t>复飞</t>
-  </si>
-  <si>
-    <t>染指黄花</t>
-  </si>
-  <si>
-    <t>人皇步</t>
-  </si>
-  <si>
-    <t>撞击</t>
-  </si>
-  <si>
-    <t>滋生</t>
-  </si>
-  <si>
-    <t>挥发</t>
-  </si>
-  <si>
-    <t>对敌对目标造成伤害</t>
-  </si>
-  <si>
-    <t>使拥有者与拥有者相邻的单位，感染提高10%</t>
-  </si>
-  <si>
-    <t>史莱哇啊！</t>
-  </si>
-  <si>
-    <t>一团来自深层尘土味的紫雾</t>
-  </si>
-  <si>
-    <t>吡咕，吡咕！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌对目标造成等同于卡牌拥有者感染*4的真实伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌对目标造成伤害，并迁移其所有负面效果至他的后一个单位上</t>
-  </si>
-  <si>
-    <t>回复费用</t>
-  </si>
-  <si>
-    <t>循环1/3
-单轮激活费用为1，循环总次数为3</t>
-  </si>
-  <si>
-    <t>从牌库中抽取若干张牌，直到手牌区满</t>
-  </si>
-  <si>
-    <t>1回合内，同方造成伤害会对目标附加1回合的“木毒”
-木毒：根据剩余时间造成伤害，可叠加</t>
-  </si>
-  <si>
-    <t>持有者获得1层效果：闪避
-闪避：每一层使单位完全承受1次伤害。</t>
-  </si>
-  <si>
-    <t>由毫无生机的钢做的</t>
-  </si>
-  <si>
-    <t>撕裂，感染与重组，发生在细小的微响间</t>
-  </si>
-  <si>
-    <t>随时随地享受现代科技</t>
-  </si>
-  <si>
-    <t>重返签年之剩</t>
-  </si>
-  <si>
-    <t>至今老歪脖子树还为这朵金花耿耿于怀</t>
-  </si>
-  <si>
-    <t>你什么意思！你才中二呢！有点童心不好吗！</t>
-  </si>
-  <si>
-    <t>飞机发动机后面就是凉快啊</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Photo/Icon/Icon_10108.Icon_10108'</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>ImageBG</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Card/Character/Oo/Card_Oo_PhotoBottom.Card_Oo_PhotoBottom'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Card/Character/Clear/Card_Clear_PhotoTop_25.Card_Clear_PhotoTop_25'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Card/Character/Clear/Card_Clear_PhotoBottom.Card_Clear_PhotoBottom'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Photo/Icon/Icon_10205.Icon_10205'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Card/Character/Clear/Card_Clear_PhotoTop_100.Card_Clear_PhotoTop_100'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Card/Character/Slime/Card_Slime_PhotoTop_25.Card_Slime_PhotoTop_25'</t>
   </si>
   <si>
     <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Photo/Icon/Icon_20101.Icon_20101'</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Card/Character/Slime/Card_Slime_PhotoTop_100.Card_Slime_PhotoTop_100'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Card/Character/Gdo/Card_Gdo_PhotoTop_25.Card_Gdo_PhotoTop_25'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Card/Character/Gdo/Card_Gdo_PhotoBottom.Card_Gdo_PhotoBottom'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Photo/Sticker/Stickers_Gindon.Stickers_Gindon'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Card/Character/Gdo/Card_Gdo_PhotoTop_100.Card_Gdo_PhotoTop_100'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Card/Character/Boh/Card_Boh_PhotoTop_25.Card_Boh_PhotoTop_25'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Card/Character/Boh/Card_Boh_PhotoBottom.Card_Boh_PhotoBottom'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Photo/Sticker/Stickers_BoH.Stickers_BoH'</t>
+  </si>
+  <si>
+    <t>/Script/Engine.Texture2D'/Game/Aoitaism/Asset/Card/Character/Boh/Card_Boh_PhotoTop_100.Card_Boh_PhotoTop_100'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,24 +264,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,12 +443,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEEAD"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -771,15 +690,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1136,23 +1049,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E658F8FD-3396-42CF-AF9E-B7E1F5C9568B}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="52.44140625" customWidth="1"/>
-    <col min="4" max="4" width="81.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" customWidth="1"/>
-    <col min="7" max="7" width="39.21875" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" customWidth="1"/>
-    <col min="9" max="9" width="110.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1166,291 +1075,1255 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10101</v>
       </c>
       <c r="B2">
         <v>10101</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10102</v>
       </c>
       <c r="B3">
         <v>10102</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10103</v>
       </c>
       <c r="B4">
         <v>10103</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10104</v>
       </c>
       <c r="B5">
         <v>10104</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10105</v>
       </c>
       <c r="B6">
         <v>10105</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10106</v>
       </c>
       <c r="B7">
         <v>10106</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
+      <c r="C7">
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10107</v>
       </c>
       <c r="B8">
         <v>10107</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10108</v>
+      </c>
+      <c r="B9">
+        <v>10108</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10109</v>
+      </c>
+      <c r="B10">
+        <v>10109</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10110</v>
+      </c>
+      <c r="B11">
+        <v>10110</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10111</v>
+      </c>
+      <c r="B12">
+        <v>10111</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10112</v>
+      </c>
+      <c r="B13">
+        <v>10112</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10113</v>
+      </c>
+      <c r="B14">
+        <v>10113</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10114</v>
+      </c>
+      <c r="B15">
+        <v>10114</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10115</v>
+      </c>
+      <c r="B16">
+        <v>10115</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10201</v>
+      </c>
+      <c r="B17">
+        <v>10201</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10202</v>
+      </c>
+      <c r="B18">
+        <v>10202</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10203</v>
+      </c>
+      <c r="B19">
+        <v>10203</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10204</v>
+      </c>
+      <c r="B20">
+        <v>10204</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10205</v>
+      </c>
+      <c r="B21">
+        <v>10205</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10206</v>
+      </c>
+      <c r="B22">
+        <v>10206</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10207</v>
+      </c>
+      <c r="B23">
+        <v>10207</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10208</v>
+      </c>
+      <c r="B24">
+        <v>10208</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10209</v>
+      </c>
+      <c r="B25">
+        <v>10209</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10210</v>
+      </c>
+      <c r="B26">
+        <v>10210</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10211</v>
+      </c>
+      <c r="B27">
+        <v>10211</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10212</v>
+      </c>
+      <c r="B28">
+        <v>10212</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10401</v>
+      </c>
+      <c r="B29">
+        <v>10401</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8">
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10402</v>
+      </c>
+      <c r="B30">
+        <v>10402</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10403</v>
+      </c>
+      <c r="B31">
+        <v>10403</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10404</v>
+      </c>
+      <c r="B32">
+        <v>10404</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10405</v>
+      </c>
+      <c r="B33">
+        <v>10405</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10406</v>
+      </c>
+      <c r="B34">
+        <v>10406</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10407</v>
+      </c>
+      <c r="B35">
+        <v>10407</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>10408</v>
+      </c>
+      <c r="B36">
+        <v>10408</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10409</v>
+      </c>
+      <c r="B37">
+        <v>10409</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10410</v>
+      </c>
+      <c r="B38">
+        <v>10410</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10411</v>
+      </c>
+      <c r="B39">
+        <v>10411</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10412</v>
+      </c>
+      <c r="B40">
+        <v>10412</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10501</v>
+      </c>
+      <c r="B41">
+        <v>10501</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10502</v>
+      </c>
+      <c r="B42">
+        <v>10502</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>10503</v>
+      </c>
+      <c r="B43">
+        <v>10503</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>10504</v>
+      </c>
+      <c r="B44">
+        <v>10504</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10505</v>
+      </c>
+      <c r="B45">
+        <v>10505</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10506</v>
+      </c>
+      <c r="B46">
+        <v>10506</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10507</v>
+      </c>
+      <c r="B47">
+        <v>10507</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>10508</v>
+      </c>
+      <c r="B48">
+        <v>10508</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>10509</v>
+      </c>
+      <c r="B49">
+        <v>10509</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10510</v>
+      </c>
+      <c r="B50">
+        <v>10510</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>10511</v>
+      </c>
+      <c r="B51">
+        <v>10511</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10512</v>
+      </c>
+      <c r="B52">
+        <v>10512</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>20101</v>
+      </c>
+      <c r="B53">
+        <v>20101</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>20102</v>
+      </c>
+      <c r="B54">
+        <v>20102</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>20103</v>
+      </c>
+      <c r="B55">
+        <v>20103</v>
+      </c>
+      <c r="C55">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>20101</v>
-      </c>
-      <c r="B9">
-        <v>20101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>20102</v>
-      </c>
-      <c r="B10">
-        <v>20102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>20103</v>
-      </c>
-      <c r="B11">
-        <v>20103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
